--- a/satd_issue_dataset_Go.xlsx
+++ b/satd_issue_dataset_Go.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{01A39E4F-0653-7B41-9C1B-C785707D5BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F6B5490-3014-2747-931C-73D5C6827A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="satd_issue_dataset_Go" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4747" uniqueCount="2377">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4848" uniqueCount="2392">
   <si>
     <t>Issue</t>
   </si>
@@ -7159,6 +7159,159 @@
   <si>
     <t>[Content]
 [Class]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Design</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]search.results reducerを使用するのをやめる
+[Class]機能の置き換え</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]textbox componentでTransition showPreviewをmutableから移行する
+[Class]機能の改善</t>
+    <rPh sb="59" eb="61">
+      <t xml:space="preserve">イコウスル </t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]utility関数でgetStateを避ける
+[Class]関数の改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t xml:space="preserve">サケル </t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mattermost/reduxライブラリをFrowに移行
+[Class]ファイルの移行</t>
+    <rPh sb="36" eb="38">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mattermost-reduxからwebappを移行
+[Class]コードの移行</t>
+    <rPh sb="34" eb="36">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]メール関連のactionをreduxに移行
+[Class]コードの移行</t>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]DM/GM関連のactionをreduxに移行
+[Class]コードの移行</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">カンレンノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]autocompleteとsearch actionをreduxに移行
+[Class]コードの移行</t>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Tests</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]セレクターの単体テストを分離して改善する
+[Class]テストの改善</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ブンリ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">カイゼンスル </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能をSyncに移行
+[Class]機能の移行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]構文エラーによるテストの失敗
+[Class]テストの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">コウブンエラーニ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">シッパイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>テストを記述したファイルのミスはDesign？</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">キジュツシタファイルノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Makefileでcp -rをcp -Rに置き換える
+[Class]オプションの変更</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -8129,8 +8282,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8165,8 +8318,11 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>2377</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>2376</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42">
@@ -8176,8 +8332,11 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>2377</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42">
@@ -8187,8 +8346,11 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>2377</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42">
@@ -8198,8 +8360,11 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>2377</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42">
@@ -8209,8 +8374,11 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>2377</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>2376</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="42">
@@ -8220,8 +8388,11 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>2377</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>2376</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42">
@@ -8231,8 +8402,11 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
+      <c r="C8" t="s">
+        <v>2377</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>2376</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="42">
@@ -8242,8 +8416,11 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
+      <c r="C9" t="s">
+        <v>2377</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>2376</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42">
@@ -8253,8 +8430,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>2386</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>2376</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
@@ -8264,8 +8444,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="C11" t="s">
+        <v>2377</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
@@ -8275,8 +8458,11 @@
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>2377</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
@@ -8286,8 +8472,11 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13" t="s">
+        <v>2377</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="42">
@@ -8297,8 +8486,11 @@
       <c r="B14" t="s">
         <v>14</v>
       </c>
+      <c r="C14" t="s">
+        <v>2377</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="42">
@@ -8308,8 +8500,11 @@
       <c r="B15" t="s">
         <v>15</v>
       </c>
+      <c r="C15" t="s">
+        <v>2377</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="42">
@@ -8319,8 +8514,11 @@
       <c r="B16" t="s">
         <v>16</v>
       </c>
+      <c r="C16" t="s">
+        <v>2377</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42">
@@ -8330,8 +8528,11 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
+      <c r="C17" t="s">
+        <v>2377</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="42">
@@ -8341,8 +8542,11 @@
       <c r="B18" t="s">
         <v>18</v>
       </c>
+      <c r="C18" t="s">
+        <v>2377</v>
+      </c>
       <c r="F18" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="42">
@@ -8352,8 +8556,11 @@
       <c r="B19" t="s">
         <v>19</v>
       </c>
+      <c r="C19" t="s">
+        <v>2377</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="42">
@@ -8363,8 +8570,11 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
+      <c r="C20" t="s">
+        <v>2377</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="42">
@@ -8374,8 +8584,11 @@
       <c r="B21" t="s">
         <v>21</v>
       </c>
+      <c r="C21" t="s">
+        <v>2377</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="42">
@@ -8385,8 +8598,11 @@
       <c r="B22" t="s">
         <v>22</v>
       </c>
+      <c r="C22" t="s">
+        <v>2377</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="42">
@@ -8396,8 +8612,11 @@
       <c r="B23" t="s">
         <v>23</v>
       </c>
+      <c r="C23" t="s">
+        <v>2377</v>
+      </c>
       <c r="F23" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="42">
@@ -8407,8 +8626,11 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
+      <c r="C24" t="s">
+        <v>2377</v>
+      </c>
       <c r="F24" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="42">
@@ -8418,8 +8640,11 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
+      <c r="C25" t="s">
+        <v>2377</v>
+      </c>
       <c r="F25" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="42">
@@ -8429,8 +8654,11 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
+      <c r="C26" t="s">
+        <v>2377</v>
+      </c>
       <c r="F26" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="42">
@@ -8440,8 +8668,11 @@
       <c r="B27" t="s">
         <v>27</v>
       </c>
+      <c r="C27" t="s">
+        <v>2377</v>
+      </c>
       <c r="F27" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="42">
@@ -8451,8 +8682,11 @@
       <c r="B28" t="s">
         <v>28</v>
       </c>
+      <c r="C28" t="s">
+        <v>2377</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="42">
@@ -8462,8 +8696,11 @@
       <c r="B29" t="s">
         <v>29</v>
       </c>
+      <c r="C29" t="s">
+        <v>2377</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="42">
@@ -8473,8 +8710,11 @@
       <c r="B30" t="s">
         <v>30</v>
       </c>
+      <c r="C30" t="s">
+        <v>2377</v>
+      </c>
       <c r="F30" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="42">
@@ -8484,8 +8724,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" t="s">
+        <v>2377</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42">
@@ -8495,8 +8738,11 @@
       <c r="B32" t="s">
         <v>32</v>
       </c>
+      <c r="C32" t="s">
+        <v>2377</v>
+      </c>
       <c r="F32" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="42">
@@ -8506,8 +8752,11 @@
       <c r="B33" t="s">
         <v>33</v>
       </c>
+      <c r="C33" t="s">
+        <v>2377</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="42">
@@ -8517,8 +8766,11 @@
       <c r="B34" t="s">
         <v>34</v>
       </c>
+      <c r="C34" t="s">
+        <v>2377</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="42">
@@ -8528,8 +8780,11 @@
       <c r="B35" t="s">
         <v>35</v>
       </c>
+      <c r="C35" t="s">
+        <v>2377</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="42">
@@ -8539,8 +8794,11 @@
       <c r="B36" t="s">
         <v>36</v>
       </c>
+      <c r="C36" t="s">
+        <v>2377</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="42">
@@ -8550,8 +8808,11 @@
       <c r="B37" t="s">
         <v>37</v>
       </c>
+      <c r="C37" t="s">
+        <v>2377</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="42">
@@ -8561,8 +8822,11 @@
       <c r="B38" t="s">
         <v>38</v>
       </c>
+      <c r="C38" t="s">
+        <v>2377</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="42">
@@ -8572,8 +8836,11 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
+      <c r="C39" t="s">
+        <v>2377</v>
+      </c>
       <c r="F39" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="42">
@@ -8583,8 +8850,11 @@
       <c r="B40" t="s">
         <v>40</v>
       </c>
+      <c r="C40" t="s">
+        <v>2377</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="42">
@@ -8594,8 +8864,11 @@
       <c r="B41" t="s">
         <v>41</v>
       </c>
+      <c r="C41" t="s">
+        <v>2377</v>
+      </c>
       <c r="F41" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="42">
@@ -8605,8 +8878,11 @@
       <c r="B42" t="s">
         <v>42</v>
       </c>
+      <c r="C42" t="s">
+        <v>2377</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="42">
@@ -8616,8 +8892,11 @@
       <c r="B43" t="s">
         <v>43</v>
       </c>
+      <c r="C43" t="s">
+        <v>2377</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42">
@@ -8627,8 +8906,11 @@
       <c r="B44" t="s">
         <v>44</v>
       </c>
+      <c r="C44" t="s">
+        <v>2377</v>
+      </c>
       <c r="F44" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="42">
@@ -8638,8 +8920,17 @@
       <c r="B45" t="s">
         <v>45</v>
       </c>
+      <c r="C45" t="s">
+        <v>2386</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2390</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>2376</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="42">
@@ -8649,8 +8940,11 @@
       <c r="B46" t="s">
         <v>46</v>
       </c>
+      <c r="C46" t="s">
+        <v>2377</v>
+      </c>
       <c r="F46" s="2" t="s">
-        <v>2376</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="42">
@@ -8660,8 +8954,11 @@
       <c r="B47" t="s">
         <v>47</v>
       </c>
+      <c r="C47" t="s">
+        <v>2377</v>
+      </c>
       <c r="F47" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="42">
@@ -8671,8 +8968,11 @@
       <c r="B48" t="s">
         <v>48</v>
       </c>
+      <c r="C48" t="s">
+        <v>2377</v>
+      </c>
       <c r="F48" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="42">
@@ -8682,8 +8982,11 @@
       <c r="B49" t="s">
         <v>49</v>
       </c>
+      <c r="C49" t="s">
+        <v>2377</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="42">
@@ -8693,8 +8996,11 @@
       <c r="B50" t="s">
         <v>50</v>
       </c>
+      <c r="C50" t="s">
+        <v>2377</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="42">
@@ -8704,8 +9010,11 @@
       <c r="B51" t="s">
         <v>51</v>
       </c>
+      <c r="C51" t="s">
+        <v>2377</v>
+      </c>
       <c r="F51" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="42">
@@ -8715,8 +9024,11 @@
       <c r="B52" t="s">
         <v>52</v>
       </c>
+      <c r="C52" t="s">
+        <v>2377</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="42">
@@ -8726,8 +9038,11 @@
       <c r="B53" t="s">
         <v>53</v>
       </c>
+      <c r="C53" t="s">
+        <v>2377</v>
+      </c>
       <c r="F53" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="42">
@@ -8737,8 +9052,11 @@
       <c r="B54" t="s">
         <v>54</v>
       </c>
+      <c r="C54" t="s">
+        <v>2377</v>
+      </c>
       <c r="F54" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="42">
@@ -8748,8 +9066,11 @@
       <c r="B55" t="s">
         <v>55</v>
       </c>
+      <c r="C55" t="s">
+        <v>2377</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="42">
@@ -8759,8 +9080,11 @@
       <c r="B56" t="s">
         <v>56</v>
       </c>
+      <c r="C56" t="s">
+        <v>2377</v>
+      </c>
       <c r="F56" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="42">
@@ -8770,8 +9094,11 @@
       <c r="B57" t="s">
         <v>57</v>
       </c>
+      <c r="C57" t="s">
+        <v>2377</v>
+      </c>
       <c r="F57" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="42">
@@ -8781,8 +9108,11 @@
       <c r="B58" t="s">
         <v>58</v>
       </c>
+      <c r="C58" t="s">
+        <v>2377</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="42">
@@ -8792,8 +9122,11 @@
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" t="s">
+        <v>2377</v>
+      </c>
       <c r="F59" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="42">
@@ -8803,8 +9136,11 @@
       <c r="B60" t="s">
         <v>60</v>
       </c>
+      <c r="C60" t="s">
+        <v>2377</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="42">
@@ -8814,8 +9150,11 @@
       <c r="B61" t="s">
         <v>61</v>
       </c>
+      <c r="C61" t="s">
+        <v>2377</v>
+      </c>
       <c r="F61" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="42">
@@ -8825,8 +9164,11 @@
       <c r="B62" t="s">
         <v>62</v>
       </c>
+      <c r="C62" t="s">
+        <v>2377</v>
+      </c>
       <c r="F62" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="42">
@@ -8836,8 +9178,11 @@
       <c r="B63" t="s">
         <v>63</v>
       </c>
+      <c r="C63" t="s">
+        <v>2377</v>
+      </c>
       <c r="F63" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="42">
@@ -8847,8 +9192,11 @@
       <c r="B64" t="s">
         <v>64</v>
       </c>
+      <c r="C64" t="s">
+        <v>2377</v>
+      </c>
       <c r="F64" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="42">
@@ -8858,8 +9206,11 @@
       <c r="B65" t="s">
         <v>65</v>
       </c>
+      <c r="C65" t="s">
+        <v>2377</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="42">
@@ -8869,8 +9220,11 @@
       <c r="B66" t="s">
         <v>66</v>
       </c>
+      <c r="C66" t="s">
+        <v>2377</v>
+      </c>
       <c r="F66" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="42">
@@ -8880,8 +9234,11 @@
       <c r="B67" t="s">
         <v>67</v>
       </c>
+      <c r="C67" t="s">
+        <v>2377</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="42">
@@ -8891,8 +9248,11 @@
       <c r="B68" t="s">
         <v>68</v>
       </c>
+      <c r="C68" t="s">
+        <v>2377</v>
+      </c>
       <c r="F68" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="42">
@@ -8902,8 +9262,11 @@
       <c r="B69" t="s">
         <v>69</v>
       </c>
+      <c r="C69" t="s">
+        <v>2377</v>
+      </c>
       <c r="F69" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="42">
@@ -8913,8 +9276,11 @@
       <c r="B70" t="s">
         <v>70</v>
       </c>
+      <c r="C70" t="s">
+        <v>2377</v>
+      </c>
       <c r="F70" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="42">
@@ -8924,8 +9290,11 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" t="s">
+        <v>2377</v>
+      </c>
       <c r="F71" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="42">
@@ -8935,8 +9304,11 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" t="s">
+        <v>2377</v>
+      </c>
       <c r="F72" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="42">
@@ -8946,8 +9318,11 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" t="s">
+        <v>2377</v>
+      </c>
       <c r="F73" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="42">
@@ -8957,8 +9332,11 @@
       <c r="B74" t="s">
         <v>74</v>
       </c>
+      <c r="C74" t="s">
+        <v>2377</v>
+      </c>
       <c r="F74" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="42">
@@ -8968,8 +9346,11 @@
       <c r="B75" t="s">
         <v>75</v>
       </c>
+      <c r="C75" t="s">
+        <v>2377</v>
+      </c>
       <c r="F75" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="42">
@@ -8979,8 +9360,11 @@
       <c r="B76" t="s">
         <v>76</v>
       </c>
+      <c r="C76" t="s">
+        <v>2377</v>
+      </c>
       <c r="F76" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="42">
@@ -8990,8 +9374,11 @@
       <c r="B77" t="s">
         <v>77</v>
       </c>
+      <c r="C77" t="s">
+        <v>2377</v>
+      </c>
       <c r="F77" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="42">
@@ -9001,8 +9388,11 @@
       <c r="B78" t="s">
         <v>78</v>
       </c>
+      <c r="C78" t="s">
+        <v>2377</v>
+      </c>
       <c r="F78" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="42">
@@ -9012,8 +9402,11 @@
       <c r="B79" t="s">
         <v>79</v>
       </c>
+      <c r="C79" t="s">
+        <v>2377</v>
+      </c>
       <c r="F79" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="42">
@@ -9023,8 +9416,11 @@
       <c r="B80" t="s">
         <v>80</v>
       </c>
+      <c r="C80" t="s">
+        <v>2377</v>
+      </c>
       <c r="F80" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="42">
@@ -9034,8 +9430,11 @@
       <c r="B81" t="s">
         <v>81</v>
       </c>
+      <c r="C81" t="s">
+        <v>2377</v>
+      </c>
       <c r="F81" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="42">
@@ -9045,8 +9444,11 @@
       <c r="B82" t="s">
         <v>82</v>
       </c>
+      <c r="C82" t="s">
+        <v>2377</v>
+      </c>
       <c r="F82" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="42">
@@ -9056,8 +9458,11 @@
       <c r="B83" t="s">
         <v>83</v>
       </c>
+      <c r="C83" t="s">
+        <v>2377</v>
+      </c>
       <c r="F83" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="42">
@@ -9067,8 +9472,11 @@
       <c r="B84" t="s">
         <v>84</v>
       </c>
+      <c r="C84" t="s">
+        <v>2377</v>
+      </c>
       <c r="F84" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="42">
@@ -9078,8 +9486,11 @@
       <c r="B85" t="s">
         <v>85</v>
       </c>
+      <c r="C85" t="s">
+        <v>2377</v>
+      </c>
       <c r="F85" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="42">
@@ -9089,8 +9500,11 @@
       <c r="B86" t="s">
         <v>86</v>
       </c>
+      <c r="C86" t="s">
+        <v>2377</v>
+      </c>
       <c r="F86" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="42">
@@ -9100,8 +9514,11 @@
       <c r="B87" t="s">
         <v>87</v>
       </c>
+      <c r="C87" t="s">
+        <v>2377</v>
+      </c>
       <c r="F87" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="42">
@@ -9111,8 +9528,11 @@
       <c r="B88" t="s">
         <v>88</v>
       </c>
+      <c r="C88" t="s">
+        <v>2377</v>
+      </c>
       <c r="F88" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="42">
@@ -9122,8 +9542,11 @@
       <c r="B89" t="s">
         <v>89</v>
       </c>
+      <c r="C89" t="s">
+        <v>2377</v>
+      </c>
       <c r="F89" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="42">
@@ -9133,8 +9556,11 @@
       <c r="B90" t="s">
         <v>90</v>
       </c>
+      <c r="C90" t="s">
+        <v>2377</v>
+      </c>
       <c r="F90" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="42">
@@ -9144,8 +9570,11 @@
       <c r="B91" t="s">
         <v>91</v>
       </c>
+      <c r="C91" t="s">
+        <v>2377</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="42">
@@ -9155,8 +9584,11 @@
       <c r="B92" t="s">
         <v>92</v>
       </c>
+      <c r="C92" t="s">
+        <v>2377</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="42">
@@ -9166,8 +9598,11 @@
       <c r="B93" t="s">
         <v>93</v>
       </c>
+      <c r="C93" t="s">
+        <v>2377</v>
+      </c>
       <c r="F93" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="42">
@@ -9177,8 +9612,11 @@
       <c r="B94" t="s">
         <v>94</v>
       </c>
+      <c r="C94" t="s">
+        <v>2377</v>
+      </c>
       <c r="F94" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="42">
@@ -9188,8 +9626,11 @@
       <c r="B95" t="s">
         <v>95</v>
       </c>
+      <c r="C95" t="s">
+        <v>2377</v>
+      </c>
       <c r="F95" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="42">
@@ -9199,8 +9640,11 @@
       <c r="B96" t="s">
         <v>96</v>
       </c>
+      <c r="C96" t="s">
+        <v>2377</v>
+      </c>
       <c r="F96" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="42">
@@ -9210,8 +9654,11 @@
       <c r="B97" t="s">
         <v>97</v>
       </c>
+      <c r="C97" t="s">
+        <v>2377</v>
+      </c>
       <c r="F97" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="42">
@@ -9221,8 +9668,11 @@
       <c r="B98" t="s">
         <v>98</v>
       </c>
+      <c r="C98" t="s">
+        <v>2377</v>
+      </c>
       <c r="F98" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="42">
@@ -9232,8 +9682,11 @@
       <c r="B99" t="s">
         <v>99</v>
       </c>
+      <c r="C99" t="s">
+        <v>2377</v>
+      </c>
       <c r="F99" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="42">
@@ -9243,8 +9696,11 @@
       <c r="B100" t="s">
         <v>100</v>
       </c>
+      <c r="C100" t="s">
+        <v>2377</v>
+      </c>
       <c r="F100" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go.xlsx
+++ b/satd_issue_dataset_Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F6B5490-3014-2747-931C-73D5C6827A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7013718-F1B1-A742-983F-24198CDC81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4848" uniqueCount="2392">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4948" uniqueCount="2392">
   <si>
     <t>Issue</t>
   </si>
@@ -8282,8 +8282,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9710,8 +9710,11 @@
       <c r="B101" t="s">
         <v>101</v>
       </c>
+      <c r="C101" t="s">
+        <v>2377</v>
+      </c>
       <c r="F101" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="42">
@@ -9721,8 +9724,11 @@
       <c r="B102" t="s">
         <v>102</v>
       </c>
+      <c r="C102" t="s">
+        <v>2377</v>
+      </c>
       <c r="F102" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="42">
@@ -9732,8 +9738,11 @@
       <c r="B103" t="s">
         <v>103</v>
       </c>
+      <c r="C103" t="s">
+        <v>2377</v>
+      </c>
       <c r="F103" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="42">
@@ -9743,8 +9752,11 @@
       <c r="B104" t="s">
         <v>104</v>
       </c>
+      <c r="C104" t="s">
+        <v>2377</v>
+      </c>
       <c r="F104" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="42">
@@ -9754,8 +9766,11 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
+      <c r="C105" t="s">
+        <v>2377</v>
+      </c>
       <c r="F105" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="42">
@@ -9765,8 +9780,11 @@
       <c r="B106" t="s">
         <v>106</v>
       </c>
+      <c r="C106" t="s">
+        <v>2377</v>
+      </c>
       <c r="F106" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="42">
@@ -9776,8 +9794,11 @@
       <c r="B107" t="s">
         <v>107</v>
       </c>
+      <c r="C107" t="s">
+        <v>2377</v>
+      </c>
       <c r="F107" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="42">
@@ -9787,8 +9808,11 @@
       <c r="B108" t="s">
         <v>108</v>
       </c>
+      <c r="C108" t="s">
+        <v>2377</v>
+      </c>
       <c r="F108" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="42">
@@ -9798,8 +9822,11 @@
       <c r="B109" t="s">
         <v>109</v>
       </c>
+      <c r="C109" t="s">
+        <v>2377</v>
+      </c>
       <c r="F109" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="42">
@@ -9809,8 +9836,11 @@
       <c r="B110" t="s">
         <v>110</v>
       </c>
+      <c r="C110" t="s">
+        <v>2377</v>
+      </c>
       <c r="F110" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="42">
@@ -9820,8 +9850,11 @@
       <c r="B111" t="s">
         <v>111</v>
       </c>
+      <c r="C111" t="s">
+        <v>2377</v>
+      </c>
       <c r="F111" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="42">
@@ -9831,8 +9864,11 @@
       <c r="B112" t="s">
         <v>112</v>
       </c>
+      <c r="C112" t="s">
+        <v>2377</v>
+      </c>
       <c r="F112" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="42">
@@ -9842,8 +9878,11 @@
       <c r="B113" t="s">
         <v>113</v>
       </c>
+      <c r="C113" t="s">
+        <v>2377</v>
+      </c>
       <c r="F113" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="42">
@@ -9853,8 +9892,11 @@
       <c r="B114" t="s">
         <v>114</v>
       </c>
+      <c r="C114" t="s">
+        <v>2377</v>
+      </c>
       <c r="F114" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="42">
@@ -9864,8 +9906,11 @@
       <c r="B115" t="s">
         <v>115</v>
       </c>
+      <c r="C115" t="s">
+        <v>2377</v>
+      </c>
       <c r="F115" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="42">
@@ -9875,8 +9920,11 @@
       <c r="B116" t="s">
         <v>116</v>
       </c>
+      <c r="C116" t="s">
+        <v>2377</v>
+      </c>
       <c r="F116" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="42">
@@ -9886,8 +9934,11 @@
       <c r="B117" t="s">
         <v>117</v>
       </c>
+      <c r="C117" t="s">
+        <v>2377</v>
+      </c>
       <c r="F117" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="42">
@@ -9897,8 +9948,11 @@
       <c r="B118" t="s">
         <v>118</v>
       </c>
+      <c r="C118" t="s">
+        <v>2377</v>
+      </c>
       <c r="F118" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="42">
@@ -9908,8 +9962,11 @@
       <c r="B119" t="s">
         <v>119</v>
       </c>
+      <c r="C119" t="s">
+        <v>2377</v>
+      </c>
       <c r="F119" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="42">
@@ -9919,8 +9976,11 @@
       <c r="B120" t="s">
         <v>120</v>
       </c>
+      <c r="C120" t="s">
+        <v>2377</v>
+      </c>
       <c r="F120" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="42">
@@ -9930,8 +9990,11 @@
       <c r="B121" t="s">
         <v>121</v>
       </c>
+      <c r="C121" t="s">
+        <v>2377</v>
+      </c>
       <c r="F121" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="42">
@@ -9941,8 +10004,11 @@
       <c r="B122" t="s">
         <v>122</v>
       </c>
+      <c r="C122" t="s">
+        <v>2377</v>
+      </c>
       <c r="F122" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="42">
@@ -9952,8 +10018,11 @@
       <c r="B123" t="s">
         <v>123</v>
       </c>
+      <c r="C123" t="s">
+        <v>2377</v>
+      </c>
       <c r="F123" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="42">
@@ -9963,8 +10032,11 @@
       <c r="B124" t="s">
         <v>124</v>
       </c>
+      <c r="C124" t="s">
+        <v>2377</v>
+      </c>
       <c r="F124" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="42">
@@ -9974,8 +10046,11 @@
       <c r="B125" t="s">
         <v>125</v>
       </c>
+      <c r="C125" t="s">
+        <v>2377</v>
+      </c>
       <c r="F125" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="42">
@@ -9985,8 +10060,11 @@
       <c r="B126" t="s">
         <v>126</v>
       </c>
+      <c r="C126" t="s">
+        <v>2377</v>
+      </c>
       <c r="F126" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="42">
@@ -9996,8 +10074,11 @@
       <c r="B127" t="s">
         <v>127</v>
       </c>
+      <c r="C127" t="s">
+        <v>2377</v>
+      </c>
       <c r="F127" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="42">
@@ -10007,8 +10088,11 @@
       <c r="B128" t="s">
         <v>128</v>
       </c>
+      <c r="C128" t="s">
+        <v>2377</v>
+      </c>
       <c r="F128" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="42">
@@ -10018,8 +10102,11 @@
       <c r="B129" t="s">
         <v>129</v>
       </c>
+      <c r="C129" t="s">
+        <v>2377</v>
+      </c>
       <c r="F129" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="42">
@@ -10029,8 +10116,11 @@
       <c r="B130" t="s">
         <v>130</v>
       </c>
+      <c r="C130" t="s">
+        <v>2377</v>
+      </c>
       <c r="F130" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="42">
@@ -10040,8 +10130,11 @@
       <c r="B131" t="s">
         <v>131</v>
       </c>
+      <c r="C131" t="s">
+        <v>2377</v>
+      </c>
       <c r="F131" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="42">
@@ -10051,8 +10144,11 @@
       <c r="B132" t="s">
         <v>132</v>
       </c>
+      <c r="C132" t="s">
+        <v>2377</v>
+      </c>
       <c r="F132" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="42">
@@ -10062,8 +10158,11 @@
       <c r="B133" t="s">
         <v>133</v>
       </c>
+      <c r="C133" t="s">
+        <v>2377</v>
+      </c>
       <c r="F133" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="42">
@@ -10073,8 +10172,11 @@
       <c r="B134" t="s">
         <v>134</v>
       </c>
+      <c r="C134" t="s">
+        <v>2377</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="42">
@@ -10084,8 +10186,11 @@
       <c r="B135" t="s">
         <v>135</v>
       </c>
+      <c r="C135" t="s">
+        <v>2377</v>
+      </c>
       <c r="F135" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="42">
@@ -10095,8 +10200,11 @@
       <c r="B136" t="s">
         <v>136</v>
       </c>
+      <c r="C136" t="s">
+        <v>2377</v>
+      </c>
       <c r="F136" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="42">
@@ -10106,8 +10214,11 @@
       <c r="B137" t="s">
         <v>137</v>
       </c>
+      <c r="C137" t="s">
+        <v>2377</v>
+      </c>
       <c r="F137" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="42">
@@ -10117,8 +10228,11 @@
       <c r="B138" t="s">
         <v>138</v>
       </c>
+      <c r="C138" t="s">
+        <v>2377</v>
+      </c>
       <c r="F138" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="42">
@@ -10128,8 +10242,11 @@
       <c r="B139" t="s">
         <v>139</v>
       </c>
+      <c r="C139" t="s">
+        <v>2377</v>
+      </c>
       <c r="F139" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="42">
@@ -10139,8 +10256,11 @@
       <c r="B140" t="s">
         <v>140</v>
       </c>
+      <c r="C140" t="s">
+        <v>2377</v>
+      </c>
       <c r="F140" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="42">
@@ -10150,8 +10270,11 @@
       <c r="B141" t="s">
         <v>141</v>
       </c>
+      <c r="C141" t="s">
+        <v>2377</v>
+      </c>
       <c r="F141" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="42">
@@ -10161,8 +10284,11 @@
       <c r="B142" t="s">
         <v>142</v>
       </c>
+      <c r="C142" t="s">
+        <v>2377</v>
+      </c>
       <c r="F142" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="42">
@@ -10172,8 +10298,11 @@
       <c r="B143" t="s">
         <v>143</v>
       </c>
+      <c r="C143" t="s">
+        <v>2377</v>
+      </c>
       <c r="F143" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="42">
@@ -10183,8 +10312,11 @@
       <c r="B144" t="s">
         <v>144</v>
       </c>
+      <c r="C144" t="s">
+        <v>2377</v>
+      </c>
       <c r="F144" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="42">
@@ -10194,8 +10326,11 @@
       <c r="B145" t="s">
         <v>145</v>
       </c>
+      <c r="C145" t="s">
+        <v>2377</v>
+      </c>
       <c r="F145" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="42">
@@ -10205,8 +10340,11 @@
       <c r="B146" t="s">
         <v>146</v>
       </c>
+      <c r="C146" t="s">
+        <v>2377</v>
+      </c>
       <c r="F146" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="42">
@@ -10216,8 +10354,11 @@
       <c r="B147" t="s">
         <v>147</v>
       </c>
+      <c r="C147" t="s">
+        <v>2377</v>
+      </c>
       <c r="F147" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="42">
@@ -10227,8 +10368,11 @@
       <c r="B148" t="s">
         <v>148</v>
       </c>
+      <c r="C148" t="s">
+        <v>2377</v>
+      </c>
       <c r="F148" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="42">
@@ -10238,8 +10382,11 @@
       <c r="B149" t="s">
         <v>149</v>
       </c>
+      <c r="C149" t="s">
+        <v>2377</v>
+      </c>
       <c r="F149" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="42">
@@ -10249,8 +10396,11 @@
       <c r="B150" t="s">
         <v>150</v>
       </c>
+      <c r="C150" t="s">
+        <v>2377</v>
+      </c>
       <c r="F150" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="42">
@@ -10260,8 +10410,11 @@
       <c r="B151" t="s">
         <v>151</v>
       </c>
+      <c r="C151" t="s">
+        <v>2377</v>
+      </c>
       <c r="F151" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="42">
@@ -10271,8 +10424,11 @@
       <c r="B152" t="s">
         <v>152</v>
       </c>
+      <c r="C152" t="s">
+        <v>2377</v>
+      </c>
       <c r="F152" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="42">
@@ -10282,8 +10438,11 @@
       <c r="B153" t="s">
         <v>153</v>
       </c>
+      <c r="C153" t="s">
+        <v>2377</v>
+      </c>
       <c r="F153" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="42">
@@ -10293,8 +10452,11 @@
       <c r="B154" t="s">
         <v>154</v>
       </c>
+      <c r="C154" t="s">
+        <v>2377</v>
+      </c>
       <c r="F154" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="42">
@@ -10304,8 +10466,11 @@
       <c r="B155" t="s">
         <v>155</v>
       </c>
+      <c r="C155" t="s">
+        <v>2377</v>
+      </c>
       <c r="F155" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="42">
@@ -10315,8 +10480,11 @@
       <c r="B156" t="s">
         <v>156</v>
       </c>
+      <c r="C156" t="s">
+        <v>2377</v>
+      </c>
       <c r="F156" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="42">
@@ -10326,8 +10494,11 @@
       <c r="B157" t="s">
         <v>157</v>
       </c>
+      <c r="C157" t="s">
+        <v>2377</v>
+      </c>
       <c r="F157" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="42">
@@ -10337,8 +10508,11 @@
       <c r="B158" t="s">
         <v>158</v>
       </c>
+      <c r="C158" t="s">
+        <v>2377</v>
+      </c>
       <c r="F158" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="42">
@@ -10348,8 +10522,11 @@
       <c r="B159" t="s">
         <v>159</v>
       </c>
+      <c r="C159" t="s">
+        <v>2377</v>
+      </c>
       <c r="F159" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="42">
@@ -10359,8 +10536,11 @@
       <c r="B160" t="s">
         <v>160</v>
       </c>
+      <c r="C160" t="s">
+        <v>2377</v>
+      </c>
       <c r="F160" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="42">
@@ -10370,8 +10550,11 @@
       <c r="B161" t="s">
         <v>161</v>
       </c>
+      <c r="C161" t="s">
+        <v>2377</v>
+      </c>
       <c r="F161" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="42">
@@ -10381,8 +10564,11 @@
       <c r="B162" t="s">
         <v>162</v>
       </c>
+      <c r="C162" t="s">
+        <v>2377</v>
+      </c>
       <c r="F162" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="42">
@@ -10392,8 +10578,11 @@
       <c r="B163" t="s">
         <v>163</v>
       </c>
+      <c r="C163" t="s">
+        <v>2377</v>
+      </c>
       <c r="F163" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="42">
@@ -10403,8 +10592,11 @@
       <c r="B164" t="s">
         <v>164</v>
       </c>
+      <c r="C164" t="s">
+        <v>2377</v>
+      </c>
       <c r="F164" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="42">
@@ -10414,8 +10606,11 @@
       <c r="B165" t="s">
         <v>165</v>
       </c>
+      <c r="C165" t="s">
+        <v>2377</v>
+      </c>
       <c r="F165" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="42">
@@ -10425,8 +10620,11 @@
       <c r="B166" t="s">
         <v>166</v>
       </c>
+      <c r="C166" t="s">
+        <v>2377</v>
+      </c>
       <c r="F166" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="42">
@@ -10436,8 +10634,11 @@
       <c r="B167" t="s">
         <v>167</v>
       </c>
+      <c r="C167" t="s">
+        <v>2377</v>
+      </c>
       <c r="F167" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="42">
@@ -10447,8 +10648,11 @@
       <c r="B168" t="s">
         <v>168</v>
       </c>
+      <c r="C168" t="s">
+        <v>2377</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="42">
@@ -10458,8 +10662,11 @@
       <c r="B169" t="s">
         <v>169</v>
       </c>
+      <c r="C169" t="s">
+        <v>2377</v>
+      </c>
       <c r="F169" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="42">
@@ -10469,8 +10676,11 @@
       <c r="B170" t="s">
         <v>170</v>
       </c>
+      <c r="C170" t="s">
+        <v>2377</v>
+      </c>
       <c r="F170" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="42">
@@ -10480,8 +10690,11 @@
       <c r="B171" t="s">
         <v>171</v>
       </c>
+      <c r="C171" t="s">
+        <v>2377</v>
+      </c>
       <c r="F171" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="42">
@@ -10491,8 +10704,11 @@
       <c r="B172" t="s">
         <v>172</v>
       </c>
+      <c r="C172" t="s">
+        <v>2377</v>
+      </c>
       <c r="F172" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="42">
@@ -10502,8 +10718,11 @@
       <c r="B173" t="s">
         <v>173</v>
       </c>
+      <c r="C173" t="s">
+        <v>2377</v>
+      </c>
       <c r="F173" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="42">
@@ -10513,8 +10732,11 @@
       <c r="B174" t="s">
         <v>174</v>
       </c>
+      <c r="C174" t="s">
+        <v>2377</v>
+      </c>
       <c r="F174" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="42">
@@ -10524,8 +10746,11 @@
       <c r="B175" t="s">
         <v>175</v>
       </c>
+      <c r="C175" t="s">
+        <v>2377</v>
+      </c>
       <c r="F175" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="42">
@@ -10535,8 +10760,11 @@
       <c r="B176" t="s">
         <v>176</v>
       </c>
+      <c r="C176" t="s">
+        <v>2377</v>
+      </c>
       <c r="F176" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="42">
@@ -10546,8 +10774,11 @@
       <c r="B177" t="s">
         <v>177</v>
       </c>
+      <c r="C177" t="s">
+        <v>2377</v>
+      </c>
       <c r="F177" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="42">
@@ -10557,8 +10788,11 @@
       <c r="B178" t="s">
         <v>178</v>
       </c>
+      <c r="C178" t="s">
+        <v>2377</v>
+      </c>
       <c r="F178" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="42">
@@ -10568,8 +10802,11 @@
       <c r="B179" t="s">
         <v>179</v>
       </c>
+      <c r="C179" t="s">
+        <v>2377</v>
+      </c>
       <c r="F179" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="42">
@@ -10579,8 +10816,11 @@
       <c r="B180" t="s">
         <v>180</v>
       </c>
+      <c r="C180" t="s">
+        <v>2377</v>
+      </c>
       <c r="F180" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="42">
@@ -10590,8 +10830,11 @@
       <c r="B181" t="s">
         <v>181</v>
       </c>
+      <c r="C181" t="s">
+        <v>2377</v>
+      </c>
       <c r="F181" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="42">
@@ -10601,8 +10844,11 @@
       <c r="B182" t="s">
         <v>182</v>
       </c>
+      <c r="C182" t="s">
+        <v>2377</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="42">
@@ -10612,8 +10858,11 @@
       <c r="B183" t="s">
         <v>183</v>
       </c>
+      <c r="C183" t="s">
+        <v>2377</v>
+      </c>
       <c r="F183" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="42">
@@ -10623,8 +10872,11 @@
       <c r="B184" t="s">
         <v>184</v>
       </c>
+      <c r="C184" t="s">
+        <v>2377</v>
+      </c>
       <c r="F184" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="42">
@@ -10634,8 +10886,11 @@
       <c r="B185" t="s">
         <v>185</v>
       </c>
+      <c r="C185" t="s">
+        <v>2377</v>
+      </c>
       <c r="F185" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="42">
@@ -10645,8 +10900,11 @@
       <c r="B186" t="s">
         <v>186</v>
       </c>
+      <c r="C186" t="s">
+        <v>2377</v>
+      </c>
       <c r="F186" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="42">
@@ -10656,8 +10914,11 @@
       <c r="B187" t="s">
         <v>187</v>
       </c>
+      <c r="C187" t="s">
+        <v>2377</v>
+      </c>
       <c r="F187" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="42">
@@ -10667,8 +10928,11 @@
       <c r="B188" t="s">
         <v>188</v>
       </c>
+      <c r="C188" t="s">
+        <v>2377</v>
+      </c>
       <c r="F188" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="42">
@@ -10678,8 +10942,11 @@
       <c r="B189" t="s">
         <v>189</v>
       </c>
+      <c r="C189" t="s">
+        <v>2377</v>
+      </c>
       <c r="F189" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="42">
@@ -10689,8 +10956,11 @@
       <c r="B190" t="s">
         <v>190</v>
       </c>
+      <c r="C190" t="s">
+        <v>2377</v>
+      </c>
       <c r="F190" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="42">
@@ -10700,8 +10970,11 @@
       <c r="B191" t="s">
         <v>191</v>
       </c>
+      <c r="C191" t="s">
+        <v>2377</v>
+      </c>
       <c r="F191" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="42">
@@ -10711,8 +10984,11 @@
       <c r="B192" t="s">
         <v>192</v>
       </c>
+      <c r="C192" t="s">
+        <v>2377</v>
+      </c>
       <c r="F192" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="42">
@@ -10722,8 +10998,11 @@
       <c r="B193" t="s">
         <v>193</v>
       </c>
+      <c r="C193" t="s">
+        <v>2377</v>
+      </c>
       <c r="F193" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42">
@@ -10733,8 +11012,11 @@
       <c r="B194" t="s">
         <v>194</v>
       </c>
+      <c r="C194" t="s">
+        <v>2377</v>
+      </c>
       <c r="F194" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="42">
@@ -10744,8 +11026,11 @@
       <c r="B195" t="s">
         <v>195</v>
       </c>
+      <c r="C195" t="s">
+        <v>2377</v>
+      </c>
       <c r="F195" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="42">
@@ -10755,8 +11040,11 @@
       <c r="B196" t="s">
         <v>196</v>
       </c>
+      <c r="C196" t="s">
+        <v>2377</v>
+      </c>
       <c r="F196" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="42">
@@ -10766,8 +11054,11 @@
       <c r="B197" t="s">
         <v>197</v>
       </c>
+      <c r="C197" t="s">
+        <v>2377</v>
+      </c>
       <c r="F197" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="42">
@@ -10777,8 +11068,11 @@
       <c r="B198" t="s">
         <v>198</v>
       </c>
+      <c r="C198" t="s">
+        <v>2377</v>
+      </c>
       <c r="F198" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="42">
@@ -10788,8 +11082,11 @@
       <c r="B199" t="s">
         <v>199</v>
       </c>
+      <c r="C199" t="s">
+        <v>2377</v>
+      </c>
       <c r="F199" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="42">
@@ -10799,8 +11096,11 @@
       <c r="B200" t="s">
         <v>200</v>
       </c>
+      <c r="C200" t="s">
+        <v>2377</v>
+      </c>
       <c r="F200" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go.xlsx
+++ b/satd_issue_dataset_Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B7013718-F1B1-A742-983F-24198CDC81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6B47940F-8857-954F-9AEA-86081CE5401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4948" uniqueCount="2392">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5050" uniqueCount="2408">
   <si>
     <t>Issue</t>
   </si>
@@ -7312,6 +7312,173 @@
     <rPh sb="49" eb="51">
       <t xml:space="preserve">ヘンコウ </t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]jQueryのperfectScrollbarを取り除く
+[Class]機能の置き換え</t>
+    <rPh sb="33" eb="34">
+      <t xml:space="preserve">トリノゾク </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Jquery Dragsterの依存関係を削除
+[Class]依存関係の削除</t>
+    <rPh sb="25" eb="29">
+      <t xml:space="preserve">イソンカンケイ </t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t xml:space="preserve">イソンカンケイノ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]機能をredux actionへ移行
+[Class]機能の移行</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]システムコンソールのサイドバーにreact-custom-scrollbarsを使用
+[Class]インターフェース</t>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]コンポーネントコンストラクタでの.bindの使用を置き換える
+[Class]機能の置き換え</t>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">シヨウヲ </t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t xml:space="preserve">オキカエル </t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]テストの追加
+[Class]テストの追加</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]saveConfig actionを削除
+[Class]機能の削除</t>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]addEmoji actionを削除
+[Class]機能の削除</t>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">キノウ </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]OpenGraph previewが上書きされる
+[Class]機能の改善</t>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">キノウノ </t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Safariのサポートを12に上げ，Intl polyfillを削除
+[Class]サポートの変更</t>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">アゲ </t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Requirement</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>サポートするバージョンの変更はRequirement？</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]PopoverBarコンポーネントからshow propを削除
+[Class]インターフェースの改善</t>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testityを使用するようにテストを移行
+[Class]テストの移行</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]structured loggingを使用するようリファクタリング
+[Class]リファクタリング</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -8282,8 +8449,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="C301" sqref="C301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11110,8 +11277,11 @@
       <c r="B201" t="s">
         <v>201</v>
       </c>
+      <c r="C201" t="s">
+        <v>2377</v>
+      </c>
       <c r="F201" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="42">
@@ -11121,8 +11291,11 @@
       <c r="B202" t="s">
         <v>202</v>
       </c>
+      <c r="C202" t="s">
+        <v>2377</v>
+      </c>
       <c r="F202" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="42">
@@ -11132,8 +11305,11 @@
       <c r="B203" t="s">
         <v>203</v>
       </c>
+      <c r="C203" t="s">
+        <v>2377</v>
+      </c>
       <c r="F203" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="42">
@@ -11143,8 +11319,11 @@
       <c r="B204" t="s">
         <v>204</v>
       </c>
+      <c r="C204" t="s">
+        <v>2377</v>
+      </c>
       <c r="F204" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="42">
@@ -11154,8 +11333,11 @@
       <c r="B205" t="s">
         <v>205</v>
       </c>
+      <c r="C205" t="s">
+        <v>2377</v>
+      </c>
       <c r="F205" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="42">
@@ -11165,8 +11347,11 @@
       <c r="B206" t="s">
         <v>206</v>
       </c>
+      <c r="C206" t="s">
+        <v>2377</v>
+      </c>
       <c r="F206" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="42">
@@ -11176,8 +11361,11 @@
       <c r="B207" t="s">
         <v>207</v>
       </c>
+      <c r="C207" t="s">
+        <v>2377</v>
+      </c>
       <c r="F207" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="42">
@@ -11187,8 +11375,11 @@
       <c r="B208" t="s">
         <v>208</v>
       </c>
+      <c r="C208" t="s">
+        <v>2377</v>
+      </c>
       <c r="F208" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="42">
@@ -11198,8 +11389,11 @@
       <c r="B209" t="s">
         <v>209</v>
       </c>
+      <c r="C209" t="s">
+        <v>2377</v>
+      </c>
       <c r="F209" s="2" t="s">
-        <v>2376</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="42">
@@ -11209,8 +11403,11 @@
       <c r="B210" t="s">
         <v>210</v>
       </c>
+      <c r="C210" t="s">
+        <v>2377</v>
+      </c>
       <c r="F210" s="2" t="s">
-        <v>2376</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="42">
@@ -11220,8 +11417,11 @@
       <c r="B211" t="s">
         <v>211</v>
       </c>
+      <c r="C211" t="s">
+        <v>2377</v>
+      </c>
       <c r="F211" s="2" t="s">
-        <v>2376</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="42">
@@ -11231,8 +11431,11 @@
       <c r="B212" t="s">
         <v>212</v>
       </c>
+      <c r="C212" t="s">
+        <v>2377</v>
+      </c>
       <c r="F212" s="2" t="s">
-        <v>2376</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="42">
@@ -11242,8 +11445,11 @@
       <c r="B213" t="s">
         <v>213</v>
       </c>
+      <c r="C213" t="s">
+        <v>2377</v>
+      </c>
       <c r="F213" s="2" t="s">
-        <v>2376</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="42">
@@ -11253,8 +11459,11 @@
       <c r="B214" t="s">
         <v>214</v>
       </c>
+      <c r="C214" t="s">
+        <v>2377</v>
+      </c>
       <c r="F214" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="42">
@@ -11264,8 +11473,11 @@
       <c r="B215" t="s">
         <v>215</v>
       </c>
+      <c r="C215" t="s">
+        <v>2377</v>
+      </c>
       <c r="F215" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="42">
@@ -11275,8 +11487,11 @@
       <c r="B216" t="s">
         <v>216</v>
       </c>
+      <c r="C216" t="s">
+        <v>2377</v>
+      </c>
       <c r="F216" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="42">
@@ -11286,8 +11501,11 @@
       <c r="B217" t="s">
         <v>217</v>
       </c>
+      <c r="C217" t="s">
+        <v>2377</v>
+      </c>
       <c r="F217" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="42">
@@ -11297,8 +11515,11 @@
       <c r="B218" t="s">
         <v>218</v>
       </c>
+      <c r="C218" t="s">
+        <v>2377</v>
+      </c>
       <c r="F218" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="42">
@@ -11308,8 +11529,11 @@
       <c r="B219" t="s">
         <v>219</v>
       </c>
+      <c r="C219" t="s">
+        <v>2377</v>
+      </c>
       <c r="F219" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="42">
@@ -11319,8 +11543,11 @@
       <c r="B220" t="s">
         <v>220</v>
       </c>
+      <c r="C220" t="s">
+        <v>2377</v>
+      </c>
       <c r="F220" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="42">
@@ -11330,8 +11557,11 @@
       <c r="B221" t="s">
         <v>221</v>
       </c>
+      <c r="C221" t="s">
+        <v>2377</v>
+      </c>
       <c r="F221" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="42">
@@ -11341,8 +11571,11 @@
       <c r="B222" t="s">
         <v>222</v>
       </c>
+      <c r="C222" t="s">
+        <v>2377</v>
+      </c>
       <c r="F222" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="42">
@@ -11352,8 +11585,11 @@
       <c r="B223" t="s">
         <v>223</v>
       </c>
+      <c r="C223" t="s">
+        <v>2377</v>
+      </c>
       <c r="F223" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="42">
@@ -11363,8 +11599,11 @@
       <c r="B224" t="s">
         <v>224</v>
       </c>
+      <c r="C224" t="s">
+        <v>2377</v>
+      </c>
       <c r="F224" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="42">
@@ -11374,8 +11613,11 @@
       <c r="B225" t="s">
         <v>225</v>
       </c>
+      <c r="C225" t="s">
+        <v>2377</v>
+      </c>
       <c r="F225" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="42">
@@ -11385,8 +11627,11 @@
       <c r="B226" t="s">
         <v>226</v>
       </c>
+      <c r="C226" t="s">
+        <v>2377</v>
+      </c>
       <c r="F226" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="42">
@@ -11396,8 +11641,11 @@
       <c r="B227" t="s">
         <v>227</v>
       </c>
+      <c r="C227" t="s">
+        <v>2377</v>
+      </c>
       <c r="F227" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="42">
@@ -11407,8 +11655,11 @@
       <c r="B228" t="s">
         <v>228</v>
       </c>
+      <c r="C228" t="s">
+        <v>2377</v>
+      </c>
       <c r="F228" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="42">
@@ -11418,8 +11669,11 @@
       <c r="B229" t="s">
         <v>229</v>
       </c>
+      <c r="C229" t="s">
+        <v>2377</v>
+      </c>
       <c r="F229" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="42">
@@ -11429,8 +11683,11 @@
       <c r="B230" t="s">
         <v>230</v>
       </c>
+      <c r="C230" t="s">
+        <v>2377</v>
+      </c>
       <c r="F230" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="42">
@@ -11440,8 +11697,11 @@
       <c r="B231" t="s">
         <v>231</v>
       </c>
+      <c r="C231" t="s">
+        <v>2377</v>
+      </c>
       <c r="F231" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42">
@@ -11451,8 +11711,11 @@
       <c r="B232" t="s">
         <v>232</v>
       </c>
+      <c r="C232" t="s">
+        <v>2377</v>
+      </c>
       <c r="F232" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="42">
@@ -11462,8 +11725,11 @@
       <c r="B233" t="s">
         <v>233</v>
       </c>
+      <c r="C233" t="s">
+        <v>2377</v>
+      </c>
       <c r="F233" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="42">
@@ -11473,8 +11739,11 @@
       <c r="B234" t="s">
         <v>234</v>
       </c>
+      <c r="C234" t="s">
+        <v>2377</v>
+      </c>
       <c r="F234" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="42">
@@ -11484,8 +11753,11 @@
       <c r="B235" t="s">
         <v>235</v>
       </c>
+      <c r="C235" t="s">
+        <v>2377</v>
+      </c>
       <c r="F235" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="42">
@@ -11495,8 +11767,11 @@
       <c r="B236" t="s">
         <v>236</v>
       </c>
+      <c r="C236" t="s">
+        <v>2377</v>
+      </c>
       <c r="F236" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="42">
@@ -11506,8 +11781,11 @@
       <c r="B237" t="s">
         <v>237</v>
       </c>
+      <c r="C237" t="s">
+        <v>2377</v>
+      </c>
       <c r="F237" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="42">
@@ -11517,8 +11795,11 @@
       <c r="B238" t="s">
         <v>238</v>
       </c>
+      <c r="C238" t="s">
+        <v>2377</v>
+      </c>
       <c r="F238" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="42">
@@ -11528,8 +11809,11 @@
       <c r="B239" t="s">
         <v>239</v>
       </c>
+      <c r="C239" t="s">
+        <v>2377</v>
+      </c>
       <c r="F239" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="42">
@@ -11539,8 +11823,11 @@
       <c r="B240" t="s">
         <v>240</v>
       </c>
+      <c r="C240" t="s">
+        <v>2377</v>
+      </c>
       <c r="F240" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="42">
@@ -11550,8 +11837,11 @@
       <c r="B241" t="s">
         <v>241</v>
       </c>
+      <c r="C241" t="s">
+        <v>2377</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="42">
@@ -11561,8 +11851,11 @@
       <c r="B242" t="s">
         <v>242</v>
       </c>
+      <c r="C242" t="s">
+        <v>2377</v>
+      </c>
       <c r="F242" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="42">
@@ -11572,8 +11865,11 @@
       <c r="B243" t="s">
         <v>243</v>
       </c>
+      <c r="C243" t="s">
+        <v>2377</v>
+      </c>
       <c r="F243" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="42">
@@ -11583,8 +11879,11 @@
       <c r="B244" t="s">
         <v>244</v>
       </c>
+      <c r="C244" t="s">
+        <v>2377</v>
+      </c>
       <c r="F244" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="42">
@@ -11594,8 +11893,11 @@
       <c r="B245" t="s">
         <v>245</v>
       </c>
+      <c r="C245" t="s">
+        <v>2377</v>
+      </c>
       <c r="F245" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="42">
@@ -11605,8 +11907,11 @@
       <c r="B246" t="s">
         <v>246</v>
       </c>
+      <c r="C246" t="s">
+        <v>2377</v>
+      </c>
       <c r="F246" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="42">
@@ -11616,8 +11921,11 @@
       <c r="B247" t="s">
         <v>247</v>
       </c>
+      <c r="C247" t="s">
+        <v>2377</v>
+      </c>
       <c r="F247" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="42">
@@ -11627,8 +11935,11 @@
       <c r="B248" t="s">
         <v>248</v>
       </c>
+      <c r="C248" t="s">
+        <v>2377</v>
+      </c>
       <c r="F248" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="42">
@@ -11638,8 +11949,11 @@
       <c r="B249" t="s">
         <v>249</v>
       </c>
+      <c r="C249" t="s">
+        <v>2377</v>
+      </c>
       <c r="F249" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="42">
@@ -11649,8 +11963,11 @@
       <c r="B250" t="s">
         <v>250</v>
       </c>
+      <c r="C250" t="s">
+        <v>2377</v>
+      </c>
       <c r="F250" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="42">
@@ -11660,8 +11977,11 @@
       <c r="B251" t="s">
         <v>251</v>
       </c>
+      <c r="C251" t="s">
+        <v>2377</v>
+      </c>
       <c r="F251" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="42">
@@ -11671,8 +11991,11 @@
       <c r="B252" t="s">
         <v>252</v>
       </c>
+      <c r="C252" t="s">
+        <v>2377</v>
+      </c>
       <c r="F252" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="42">
@@ -11682,8 +12005,11 @@
       <c r="B253" t="s">
         <v>253</v>
       </c>
+      <c r="C253" t="s">
+        <v>2377</v>
+      </c>
       <c r="F253" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="42">
@@ -11693,8 +12019,11 @@
       <c r="B254" t="s">
         <v>254</v>
       </c>
+      <c r="C254" t="s">
+        <v>2377</v>
+      </c>
       <c r="F254" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="42">
@@ -11704,8 +12033,11 @@
       <c r="B255" t="s">
         <v>255</v>
       </c>
+      <c r="C255" t="s">
+        <v>2377</v>
+      </c>
       <c r="F255" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="42">
@@ -11715,8 +12047,11 @@
       <c r="B256" t="s">
         <v>256</v>
       </c>
+      <c r="C256" t="s">
+        <v>2377</v>
+      </c>
       <c r="F256" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="42">
@@ -11726,8 +12061,11 @@
       <c r="B257" t="s">
         <v>257</v>
       </c>
+      <c r="C257" t="s">
+        <v>2377</v>
+      </c>
       <c r="F257" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="42">
@@ -11737,8 +12075,11 @@
       <c r="B258" t="s">
         <v>258</v>
       </c>
+      <c r="C258" t="s">
+        <v>2377</v>
+      </c>
       <c r="F258" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="42">
@@ -11748,8 +12089,11 @@
       <c r="B259" t="s">
         <v>259</v>
       </c>
+      <c r="C259" t="s">
+        <v>2377</v>
+      </c>
       <c r="F259" s="2" t="s">
-        <v>2376</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="42">
@@ -11759,8 +12103,11 @@
       <c r="B260" t="s">
         <v>260</v>
       </c>
+      <c r="C260" t="s">
+        <v>2395</v>
+      </c>
       <c r="F260" s="2" t="s">
-        <v>2376</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="42">
@@ -11770,8 +12117,11 @@
       <c r="B261" t="s">
         <v>261</v>
       </c>
+      <c r="C261" t="s">
+        <v>2377</v>
+      </c>
       <c r="F261" s="2" t="s">
-        <v>2376</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="42">
@@ -11781,8 +12131,11 @@
       <c r="B262" t="s">
         <v>262</v>
       </c>
+      <c r="C262" t="s">
+        <v>2386</v>
+      </c>
       <c r="F262" s="2" t="s">
-        <v>2376</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="42">
@@ -11792,8 +12145,11 @@
       <c r="B263" t="s">
         <v>263</v>
       </c>
+      <c r="C263" t="s">
+        <v>2377</v>
+      </c>
       <c r="F263" s="2" t="s">
-        <v>2376</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="42">
@@ -11803,8 +12159,11 @@
       <c r="B264" t="s">
         <v>264</v>
       </c>
+      <c r="C264" t="s">
+        <v>2386</v>
+      </c>
       <c r="F264" s="2" t="s">
-        <v>2376</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="42">
@@ -11814,8 +12173,11 @@
       <c r="B265" t="s">
         <v>265</v>
       </c>
+      <c r="C265" t="s">
+        <v>2386</v>
+      </c>
       <c r="F265" s="2" t="s">
-        <v>2376</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="42">
@@ -11825,8 +12187,11 @@
       <c r="B266" t="s">
         <v>266</v>
       </c>
+      <c r="C266" t="s">
+        <v>2386</v>
+      </c>
       <c r="F266" s="2" t="s">
-        <v>2376</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="42">
@@ -11836,8 +12201,11 @@
       <c r="B267" t="s">
         <v>267</v>
       </c>
+      <c r="C267" t="s">
+        <v>2386</v>
+      </c>
       <c r="F267" s="2" t="s">
-        <v>2376</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="42">
@@ -11847,8 +12215,11 @@
       <c r="B268" t="s">
         <v>268</v>
       </c>
+      <c r="C268" t="s">
+        <v>2377</v>
+      </c>
       <c r="F268" s="2" t="s">
-        <v>2376</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="42">
@@ -11858,8 +12229,11 @@
       <c r="B269" t="s">
         <v>269</v>
       </c>
+      <c r="C269" t="s">
+        <v>2377</v>
+      </c>
       <c r="F269" s="2" t="s">
-        <v>2376</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="42">
@@ -11869,8 +12243,17 @@
       <c r="B270" t="s">
         <v>270</v>
       </c>
+      <c r="C270" t="s">
+        <v>2403</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2377</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>2404</v>
+      </c>
       <c r="F270" s="2" t="s">
-        <v>2376</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="42">
@@ -11880,8 +12263,11 @@
       <c r="B271" t="s">
         <v>271</v>
       </c>
+      <c r="C271" t="s">
+        <v>2395</v>
+      </c>
       <c r="F271" s="2" t="s">
-        <v>2376</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="42">
@@ -11891,8 +12277,11 @@
       <c r="B272" t="s">
         <v>272</v>
       </c>
+      <c r="C272" t="s">
+        <v>2377</v>
+      </c>
       <c r="F272" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="42">
@@ -11902,8 +12291,11 @@
       <c r="B273" t="s">
         <v>273</v>
       </c>
+      <c r="C273" t="s">
+        <v>2377</v>
+      </c>
       <c r="F273" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="42">
@@ -11913,8 +12305,11 @@
       <c r="B274" t="s">
         <v>274</v>
       </c>
+      <c r="C274" t="s">
+        <v>2377</v>
+      </c>
       <c r="F274" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="42">
@@ -11924,8 +12319,11 @@
       <c r="B275" t="s">
         <v>275</v>
       </c>
+      <c r="C275" t="s">
+        <v>2386</v>
+      </c>
       <c r="F275" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="42">
@@ -11935,8 +12333,11 @@
       <c r="B276" t="s">
         <v>276</v>
       </c>
+      <c r="C276" t="s">
+        <v>2386</v>
+      </c>
       <c r="F276" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="42">
@@ -11946,8 +12347,11 @@
       <c r="B277" t="s">
         <v>277</v>
       </c>
+      <c r="C277" t="s">
+        <v>2386</v>
+      </c>
       <c r="F277" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="42">
@@ -11957,8 +12361,11 @@
       <c r="B278" t="s">
         <v>278</v>
       </c>
+      <c r="C278" t="s">
+        <v>2386</v>
+      </c>
       <c r="F278" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="42">
@@ -11968,8 +12375,11 @@
       <c r="B279" t="s">
         <v>279</v>
       </c>
+      <c r="C279" t="s">
+        <v>2386</v>
+      </c>
       <c r="F279" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="42">
@@ -11979,8 +12389,11 @@
       <c r="B280" t="s">
         <v>280</v>
       </c>
+      <c r="C280" t="s">
+        <v>2386</v>
+      </c>
       <c r="F280" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="42">
@@ -11990,8 +12403,11 @@
       <c r="B281" t="s">
         <v>281</v>
       </c>
+      <c r="C281" t="s">
+        <v>2386</v>
+      </c>
       <c r="F281" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="42">
@@ -12001,8 +12417,11 @@
       <c r="B282" t="s">
         <v>282</v>
       </c>
+      <c r="C282" t="s">
+        <v>2386</v>
+      </c>
       <c r="F282" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="42">
@@ -12012,8 +12431,11 @@
       <c r="B283" t="s">
         <v>283</v>
       </c>
+      <c r="C283" t="s">
+        <v>2386</v>
+      </c>
       <c r="F283" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="42">
@@ -12023,8 +12445,11 @@
       <c r="B284" t="s">
         <v>284</v>
       </c>
+      <c r="C284" t="s">
+        <v>2386</v>
+      </c>
       <c r="F284" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="42">
@@ -12034,8 +12459,11 @@
       <c r="B285" t="s">
         <v>285</v>
       </c>
+      <c r="C285" t="s">
+        <v>2386</v>
+      </c>
       <c r="F285" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="42">
@@ -12045,8 +12473,11 @@
       <c r="B286" t="s">
         <v>286</v>
       </c>
+      <c r="C286" t="s">
+        <v>2386</v>
+      </c>
       <c r="F286" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="42">
@@ -12056,8 +12487,11 @@
       <c r="B287" t="s">
         <v>287</v>
       </c>
+      <c r="C287" t="s">
+        <v>2386</v>
+      </c>
       <c r="F287" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="42">
@@ -12067,8 +12501,11 @@
       <c r="B288" t="s">
         <v>288</v>
       </c>
+      <c r="C288" t="s">
+        <v>2386</v>
+      </c>
       <c r="F288" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="42">
@@ -12078,8 +12515,11 @@
       <c r="B289" t="s">
         <v>289</v>
       </c>
+      <c r="C289" t="s">
+        <v>2386</v>
+      </c>
       <c r="F289" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="42">
@@ -12089,8 +12529,11 @@
       <c r="B290" t="s">
         <v>290</v>
       </c>
+      <c r="C290" t="s">
+        <v>2386</v>
+      </c>
       <c r="F290" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42">
@@ -12100,8 +12543,11 @@
       <c r="B291" t="s">
         <v>291</v>
       </c>
+      <c r="C291" t="s">
+        <v>2386</v>
+      </c>
       <c r="F291" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="42">
@@ -12111,8 +12557,11 @@
       <c r="B292" t="s">
         <v>292</v>
       </c>
+      <c r="C292" t="s">
+        <v>2386</v>
+      </c>
       <c r="F292" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42">
@@ -12122,8 +12571,11 @@
       <c r="B293" t="s">
         <v>293</v>
       </c>
+      <c r="C293" t="s">
+        <v>2386</v>
+      </c>
       <c r="F293" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="42">
@@ -12133,8 +12585,11 @@
       <c r="B294" t="s">
         <v>294</v>
       </c>
+      <c r="C294" t="s">
+        <v>2386</v>
+      </c>
       <c r="F294" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="42">
@@ -12144,8 +12599,11 @@
       <c r="B295" t="s">
         <v>295</v>
       </c>
+      <c r="C295" t="s">
+        <v>2377</v>
+      </c>
       <c r="F295" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="42">
@@ -12155,8 +12613,11 @@
       <c r="B296" t="s">
         <v>296</v>
       </c>
+      <c r="C296" t="s">
+        <v>2377</v>
+      </c>
       <c r="F296" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="42">
@@ -12166,8 +12627,11 @@
       <c r="B297" t="s">
         <v>297</v>
       </c>
+      <c r="C297" t="s">
+        <v>2377</v>
+      </c>
       <c r="F297" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="42">
@@ -12177,8 +12641,11 @@
       <c r="B298" t="s">
         <v>298</v>
       </c>
+      <c r="C298" t="s">
+        <v>2377</v>
+      </c>
       <c r="F298" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="42">
@@ -12188,8 +12655,11 @@
       <c r="B299" t="s">
         <v>299</v>
       </c>
+      <c r="C299" t="s">
+        <v>2377</v>
+      </c>
       <c r="F299" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="42">
@@ -12199,8 +12669,11 @@
       <c r="B300" t="s">
         <v>300</v>
       </c>
+      <c r="C300" t="s">
+        <v>2377</v>
+      </c>
       <c r="F300" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go.xlsx
+++ b/satd_issue_dataset_Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BBC150CE-322D-1E4A-801F-9DDE33AB3404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F024EED-54FA-5545-AEB8-94AAE56E9FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5150" uniqueCount="2413">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5250" uniqueCount="2415">
   <si>
     <t>Issue</t>
   </si>
@@ -7515,6 +7515,28 @@
   <si>
     <t>[Content]テストをTypeScriptに移行
 [Class]テストの移行</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]single point of returnにリファクタリング
+[Class]リファクタリング</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]未使用のstatus flagを削除
+[Class]不要なフラグの削除</t>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">ミシヨウ </t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -8485,8 +8507,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="E501" sqref="E501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -14120,8 +14142,11 @@
       <c r="B401" t="s">
         <v>401</v>
       </c>
+      <c r="C401" t="s">
+        <v>2386</v>
+      </c>
       <c r="F401" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="42">
@@ -14131,8 +14156,11 @@
       <c r="B402" t="s">
         <v>402</v>
       </c>
+      <c r="C402" t="s">
+        <v>2386</v>
+      </c>
       <c r="F402" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="42">
@@ -14142,8 +14170,11 @@
       <c r="B403" t="s">
         <v>403</v>
       </c>
+      <c r="C403" t="s">
+        <v>2386</v>
+      </c>
       <c r="F403" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="42">
@@ -14153,8 +14184,11 @@
       <c r="B404" t="s">
         <v>404</v>
       </c>
+      <c r="C404" t="s">
+        <v>2386</v>
+      </c>
       <c r="F404" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="42">
@@ -14164,8 +14198,11 @@
       <c r="B405" t="s">
         <v>405</v>
       </c>
+      <c r="C405" t="s">
+        <v>2386</v>
+      </c>
       <c r="F405" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="42">
@@ -14175,8 +14212,11 @@
       <c r="B406" t="s">
         <v>406</v>
       </c>
+      <c r="C406" t="s">
+        <v>2386</v>
+      </c>
       <c r="F406" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42">
@@ -14186,8 +14226,11 @@
       <c r="B407" t="s">
         <v>407</v>
       </c>
+      <c r="C407" t="s">
+        <v>2386</v>
+      </c>
       <c r="F407" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42">
@@ -14197,8 +14240,11 @@
       <c r="B408" t="s">
         <v>408</v>
       </c>
+      <c r="C408" t="s">
+        <v>2386</v>
+      </c>
       <c r="F408" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="42">
@@ -14208,8 +14254,11 @@
       <c r="B409" t="s">
         <v>409</v>
       </c>
+      <c r="C409" t="s">
+        <v>2386</v>
+      </c>
       <c r="F409" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="42">
@@ -14219,8 +14268,11 @@
       <c r="B410" t="s">
         <v>410</v>
       </c>
+      <c r="C410" t="s">
+        <v>2386</v>
+      </c>
       <c r="F410" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42">
@@ -14230,8 +14282,11 @@
       <c r="B411" t="s">
         <v>411</v>
       </c>
+      <c r="C411" t="s">
+        <v>2386</v>
+      </c>
       <c r="F411" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="42">
@@ -14241,8 +14296,11 @@
       <c r="B412" t="s">
         <v>412</v>
       </c>
+      <c r="C412" t="s">
+        <v>2386</v>
+      </c>
       <c r="F412" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="42">
@@ -14252,8 +14310,11 @@
       <c r="B413" t="s">
         <v>413</v>
       </c>
+      <c r="C413" t="s">
+        <v>2386</v>
+      </c>
       <c r="F413" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="42">
@@ -14263,8 +14324,11 @@
       <c r="B414" t="s">
         <v>414</v>
       </c>
+      <c r="C414" t="s">
+        <v>2386</v>
+      </c>
       <c r="F414" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="42">
@@ -14274,8 +14338,11 @@
       <c r="B415" t="s">
         <v>415</v>
       </c>
+      <c r="C415" t="s">
+        <v>2386</v>
+      </c>
       <c r="F415" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="42">
@@ -14285,8 +14352,11 @@
       <c r="B416" t="s">
         <v>416</v>
       </c>
+      <c r="C416" t="s">
+        <v>2386</v>
+      </c>
       <c r="F416" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="42">
@@ -14296,8 +14366,11 @@
       <c r="B417" t="s">
         <v>417</v>
       </c>
+      <c r="C417" t="s">
+        <v>2386</v>
+      </c>
       <c r="F417" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="42">
@@ -14307,8 +14380,11 @@
       <c r="B418" t="s">
         <v>418</v>
       </c>
+      <c r="C418" t="s">
+        <v>2386</v>
+      </c>
       <c r="F418" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="42">
@@ -14318,8 +14394,11 @@
       <c r="B419" t="s">
         <v>419</v>
       </c>
+      <c r="C419" t="s">
+        <v>2386</v>
+      </c>
       <c r="F419" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="42">
@@ -14329,8 +14408,11 @@
       <c r="B420" t="s">
         <v>420</v>
       </c>
+      <c r="C420" t="s">
+        <v>2386</v>
+      </c>
       <c r="F420" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="42">
@@ -14340,8 +14422,11 @@
       <c r="B421" t="s">
         <v>421</v>
       </c>
+      <c r="C421" t="s">
+        <v>2386</v>
+      </c>
       <c r="F421" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="42">
@@ -14351,8 +14436,11 @@
       <c r="B422" t="s">
         <v>422</v>
       </c>
+      <c r="C422" t="s">
+        <v>2386</v>
+      </c>
       <c r="F422" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="42">
@@ -14362,8 +14450,11 @@
       <c r="B423" t="s">
         <v>423</v>
       </c>
+      <c r="C423" t="s">
+        <v>2386</v>
+      </c>
       <c r="F423" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="42">
@@ -14373,8 +14464,11 @@
       <c r="B424" t="s">
         <v>424</v>
       </c>
+      <c r="C424" t="s">
+        <v>2386</v>
+      </c>
       <c r="F424" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="42">
@@ -14384,8 +14478,11 @@
       <c r="B425" t="s">
         <v>425</v>
       </c>
+      <c r="C425" t="s">
+        <v>2386</v>
+      </c>
       <c r="F425" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="42">
@@ -14395,8 +14492,11 @@
       <c r="B426" t="s">
         <v>426</v>
       </c>
+      <c r="C426" t="s">
+        <v>2377</v>
+      </c>
       <c r="F426" s="2" t="s">
-        <v>2376</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="42">
@@ -14406,8 +14506,11 @@
       <c r="B427" t="s">
         <v>427</v>
       </c>
+      <c r="C427" t="s">
+        <v>2377</v>
+      </c>
       <c r="F427" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="42">
@@ -14417,8 +14520,11 @@
       <c r="B428" t="s">
         <v>428</v>
       </c>
+      <c r="C428" t="s">
+        <v>2377</v>
+      </c>
       <c r="F428" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="42">
@@ -14428,8 +14534,11 @@
       <c r="B429" t="s">
         <v>429</v>
       </c>
+      <c r="C429" t="s">
+        <v>2377</v>
+      </c>
       <c r="F429" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="42">
@@ -14439,8 +14548,11 @@
       <c r="B430" t="s">
         <v>430</v>
       </c>
+      <c r="C430" t="s">
+        <v>2377</v>
+      </c>
       <c r="F430" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="42">
@@ -14450,8 +14562,11 @@
       <c r="B431" t="s">
         <v>431</v>
       </c>
+      <c r="C431" t="s">
+        <v>2377</v>
+      </c>
       <c r="F431" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="42">
@@ -14461,8 +14576,11 @@
       <c r="B432" t="s">
         <v>432</v>
       </c>
+      <c r="C432" t="s">
+        <v>2386</v>
+      </c>
       <c r="F432" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="42">
@@ -14472,8 +14590,11 @@
       <c r="B433" t="s">
         <v>433</v>
       </c>
+      <c r="C433" t="s">
+        <v>2386</v>
+      </c>
       <c r="F433" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="42">
@@ -14483,8 +14604,11 @@
       <c r="B434" t="s">
         <v>434</v>
       </c>
+      <c r="C434" t="s">
+        <v>2386</v>
+      </c>
       <c r="F434" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="42">
@@ -14494,8 +14618,11 @@
       <c r="B435" t="s">
         <v>435</v>
       </c>
+      <c r="C435" t="s">
+        <v>2386</v>
+      </c>
       <c r="F435" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="42">
@@ -14505,8 +14632,11 @@
       <c r="B436" t="s">
         <v>436</v>
       </c>
+      <c r="C436" t="s">
+        <v>2386</v>
+      </c>
       <c r="F436" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="42">
@@ -14516,8 +14646,11 @@
       <c r="B437" t="s">
         <v>437</v>
       </c>
+      <c r="C437" t="s">
+        <v>2386</v>
+      </c>
       <c r="F437" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="42">
@@ -14527,8 +14660,11 @@
       <c r="B438" t="s">
         <v>438</v>
       </c>
+      <c r="C438" t="s">
+        <v>2386</v>
+      </c>
       <c r="F438" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="42">
@@ -14538,8 +14674,11 @@
       <c r="B439" t="s">
         <v>439</v>
       </c>
+      <c r="C439" t="s">
+        <v>2386</v>
+      </c>
       <c r="F439" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="42">
@@ -14549,8 +14688,11 @@
       <c r="B440" t="s">
         <v>440</v>
       </c>
+      <c r="C440" t="s">
+        <v>2386</v>
+      </c>
       <c r="F440" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="42">
@@ -14560,8 +14702,11 @@
       <c r="B441" t="s">
         <v>441</v>
       </c>
+      <c r="C441" t="s">
+        <v>2386</v>
+      </c>
       <c r="F441" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="42">
@@ -14571,8 +14716,11 @@
       <c r="B442" t="s">
         <v>442</v>
       </c>
+      <c r="C442" t="s">
+        <v>2386</v>
+      </c>
       <c r="F442" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="42">
@@ -14582,8 +14730,11 @@
       <c r="B443" t="s">
         <v>443</v>
       </c>
+      <c r="C443" t="s">
+        <v>2386</v>
+      </c>
       <c r="F443" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="42">
@@ -14593,8 +14744,11 @@
       <c r="B444" t="s">
         <v>444</v>
       </c>
+      <c r="C444" t="s">
+        <v>2386</v>
+      </c>
       <c r="F444" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="42">
@@ -14604,8 +14758,11 @@
       <c r="B445" t="s">
         <v>445</v>
       </c>
+      <c r="C445" t="s">
+        <v>2386</v>
+      </c>
       <c r="F445" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="42">
@@ -14615,8 +14772,11 @@
       <c r="B446" t="s">
         <v>446</v>
       </c>
+      <c r="C446" t="s">
+        <v>2386</v>
+      </c>
       <c r="F446" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="42">
@@ -14626,8 +14786,11 @@
       <c r="B447" t="s">
         <v>447</v>
       </c>
+      <c r="C447" t="s">
+        <v>2386</v>
+      </c>
       <c r="F447" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="42">
@@ -14637,8 +14800,11 @@
       <c r="B448" t="s">
         <v>448</v>
       </c>
+      <c r="C448" t="s">
+        <v>2386</v>
+      </c>
       <c r="F448" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="42">
@@ -14648,8 +14814,11 @@
       <c r="B449" t="s">
         <v>449</v>
       </c>
+      <c r="C449" t="s">
+        <v>2386</v>
+      </c>
       <c r="F449" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="42">
@@ -14659,8 +14828,11 @@
       <c r="B450" t="s">
         <v>450</v>
       </c>
+      <c r="C450" t="s">
+        <v>2386</v>
+      </c>
       <c r="F450" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="42">
@@ -14670,8 +14842,11 @@
       <c r="B451" t="s">
         <v>451</v>
       </c>
+      <c r="C451" t="s">
+        <v>2386</v>
+      </c>
       <c r="F451" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="42">
@@ -14681,8 +14856,11 @@
       <c r="B452" t="s">
         <v>452</v>
       </c>
+      <c r="C452" t="s">
+        <v>2386</v>
+      </c>
       <c r="F452" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="42">
@@ -14692,8 +14870,11 @@
       <c r="B453" t="s">
         <v>453</v>
       </c>
+      <c r="C453" t="s">
+        <v>2386</v>
+      </c>
       <c r="F453" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="42">
@@ -14703,8 +14884,11 @@
       <c r="B454" t="s">
         <v>454</v>
       </c>
+      <c r="C454" t="s">
+        <v>2386</v>
+      </c>
       <c r="F454" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="42">
@@ -14714,8 +14898,11 @@
       <c r="B455" t="s">
         <v>455</v>
       </c>
+      <c r="C455" t="s">
+        <v>2386</v>
+      </c>
       <c r="F455" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="42">
@@ -14725,8 +14912,11 @@
       <c r="B456" t="s">
         <v>456</v>
       </c>
+      <c r="C456" t="s">
+        <v>2386</v>
+      </c>
       <c r="F456" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="42">
@@ -14736,8 +14926,11 @@
       <c r="B457" t="s">
         <v>457</v>
       </c>
+      <c r="C457" t="s">
+        <v>2386</v>
+      </c>
       <c r="F457" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="42">
@@ -14747,8 +14940,11 @@
       <c r="B458" t="s">
         <v>458</v>
       </c>
+      <c r="C458" t="s">
+        <v>2386</v>
+      </c>
       <c r="F458" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="42">
@@ -14758,8 +14954,11 @@
       <c r="B459" t="s">
         <v>459</v>
       </c>
+      <c r="C459" t="s">
+        <v>2386</v>
+      </c>
       <c r="F459" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="42">
@@ -14769,8 +14968,11 @@
       <c r="B460" t="s">
         <v>460</v>
       </c>
+      <c r="C460" t="s">
+        <v>2386</v>
+      </c>
       <c r="F460" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="42">
@@ -14780,8 +14982,11 @@
       <c r="B461" t="s">
         <v>461</v>
       </c>
+      <c r="C461" t="s">
+        <v>2386</v>
+      </c>
       <c r="F461" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="42">
@@ -14791,8 +14996,11 @@
       <c r="B462" t="s">
         <v>462</v>
       </c>
+      <c r="C462" t="s">
+        <v>2386</v>
+      </c>
       <c r="F462" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="42">
@@ -14802,8 +15010,11 @@
       <c r="B463" t="s">
         <v>463</v>
       </c>
+      <c r="C463" t="s">
+        <v>2386</v>
+      </c>
       <c r="F463" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="42">
@@ -14813,8 +15024,11 @@
       <c r="B464" t="s">
         <v>464</v>
       </c>
+      <c r="C464" t="s">
+        <v>2386</v>
+      </c>
       <c r="F464" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="465" spans="1:6" ht="42">
@@ -14824,8 +15038,11 @@
       <c r="B465" t="s">
         <v>465</v>
       </c>
+      <c r="C465" t="s">
+        <v>2386</v>
+      </c>
       <c r="F465" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="466" spans="1:6" ht="42">
@@ -14835,8 +15052,11 @@
       <c r="B466" t="s">
         <v>466</v>
       </c>
+      <c r="C466" t="s">
+        <v>2386</v>
+      </c>
       <c r="F466" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="42">
@@ -14846,8 +15066,11 @@
       <c r="B467" t="s">
         <v>467</v>
       </c>
+      <c r="C467" t="s">
+        <v>2386</v>
+      </c>
       <c r="F467" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="42">
@@ -14857,8 +15080,11 @@
       <c r="B468" t="s">
         <v>468</v>
       </c>
+      <c r="C468" t="s">
+        <v>2386</v>
+      </c>
       <c r="F468" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="42">
@@ -14868,8 +15094,11 @@
       <c r="B469" t="s">
         <v>469</v>
       </c>
+      <c r="C469" t="s">
+        <v>2386</v>
+      </c>
       <c r="F469" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="42">
@@ -14879,8 +15108,11 @@
       <c r="B470" t="s">
         <v>470</v>
       </c>
+      <c r="C470" t="s">
+        <v>2386</v>
+      </c>
       <c r="F470" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="42">
@@ -14890,8 +15122,11 @@
       <c r="B471" t="s">
         <v>471</v>
       </c>
+      <c r="C471" t="s">
+        <v>2386</v>
+      </c>
       <c r="F471" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="42">
@@ -14901,8 +15136,11 @@
       <c r="B472" t="s">
         <v>472</v>
       </c>
+      <c r="C472" t="s">
+        <v>2386</v>
+      </c>
       <c r="F472" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="42">
@@ -14912,8 +15150,11 @@
       <c r="B473" t="s">
         <v>473</v>
       </c>
+      <c r="C473" t="s">
+        <v>2386</v>
+      </c>
       <c r="F473" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="42">
@@ -14923,8 +15164,11 @@
       <c r="B474" t="s">
         <v>474</v>
       </c>
+      <c r="C474" t="s">
+        <v>2386</v>
+      </c>
       <c r="F474" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="42">
@@ -14934,8 +15178,11 @@
       <c r="B475" t="s">
         <v>475</v>
       </c>
+      <c r="C475" t="s">
+        <v>2386</v>
+      </c>
       <c r="F475" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="42">
@@ -14945,8 +15192,11 @@
       <c r="B476" t="s">
         <v>476</v>
       </c>
+      <c r="C476" t="s">
+        <v>2386</v>
+      </c>
       <c r="F476" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="42">
@@ -14956,8 +15206,11 @@
       <c r="B477" t="s">
         <v>477</v>
       </c>
+      <c r="C477" t="s">
+        <v>2386</v>
+      </c>
       <c r="F477" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="42">
@@ -14967,8 +15220,11 @@
       <c r="B478" t="s">
         <v>478</v>
       </c>
+      <c r="C478" t="s">
+        <v>2386</v>
+      </c>
       <c r="F478" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="42">
@@ -14978,8 +15234,11 @@
       <c r="B479" t="s">
         <v>479</v>
       </c>
+      <c r="C479" t="s">
+        <v>2386</v>
+      </c>
       <c r="F479" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="42">
@@ -14989,8 +15248,11 @@
       <c r="B480" t="s">
         <v>480</v>
       </c>
+      <c r="C480" t="s">
+        <v>2386</v>
+      </c>
       <c r="F480" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="42">
@@ -15000,8 +15262,11 @@
       <c r="B481" t="s">
         <v>481</v>
       </c>
+      <c r="C481" t="s">
+        <v>2386</v>
+      </c>
       <c r="F481" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="42">
@@ -15011,8 +15276,11 @@
       <c r="B482" t="s">
         <v>482</v>
       </c>
+      <c r="C482" t="s">
+        <v>2386</v>
+      </c>
       <c r="F482" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="42">
@@ -15022,8 +15290,11 @@
       <c r="B483" t="s">
         <v>483</v>
       </c>
+      <c r="C483" t="s">
+        <v>2386</v>
+      </c>
       <c r="F483" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="42">
@@ -15033,8 +15304,11 @@
       <c r="B484" t="s">
         <v>484</v>
       </c>
+      <c r="C484" t="s">
+        <v>2386</v>
+      </c>
       <c r="F484" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="42">
@@ -15044,8 +15318,11 @@
       <c r="B485" t="s">
         <v>485</v>
       </c>
+      <c r="C485" t="s">
+        <v>2386</v>
+      </c>
       <c r="F485" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="42">
@@ -15055,8 +15332,11 @@
       <c r="B486" t="s">
         <v>486</v>
       </c>
+      <c r="C486" t="s">
+        <v>2386</v>
+      </c>
       <c r="F486" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="42">
@@ -15066,8 +15346,11 @@
       <c r="B487" t="s">
         <v>487</v>
       </c>
+      <c r="C487" t="s">
+        <v>2386</v>
+      </c>
       <c r="F487" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="42">
@@ -15077,8 +15360,11 @@
       <c r="B488" t="s">
         <v>488</v>
       </c>
+      <c r="C488" t="s">
+        <v>2386</v>
+      </c>
       <c r="F488" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="42">
@@ -15088,8 +15374,11 @@
       <c r="B489" t="s">
         <v>489</v>
       </c>
+      <c r="C489" t="s">
+        <v>2386</v>
+      </c>
       <c r="F489" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="42">
@@ -15099,8 +15388,11 @@
       <c r="B490" t="s">
         <v>490</v>
       </c>
+      <c r="C490" t="s">
+        <v>2386</v>
+      </c>
       <c r="F490" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="42">
@@ -15110,8 +15402,11 @@
       <c r="B491" t="s">
         <v>491</v>
       </c>
+      <c r="C491" t="s">
+        <v>2386</v>
+      </c>
       <c r="F491" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="42">
@@ -15121,8 +15416,11 @@
       <c r="B492" t="s">
         <v>492</v>
       </c>
+      <c r="C492" t="s">
+        <v>2377</v>
+      </c>
       <c r="F492" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="42">
@@ -15132,8 +15430,11 @@
       <c r="B493" t="s">
         <v>493</v>
       </c>
+      <c r="C493" t="s">
+        <v>2377</v>
+      </c>
       <c r="F493" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="42">
@@ -15143,8 +15444,11 @@
       <c r="B494" t="s">
         <v>494</v>
       </c>
+      <c r="C494" t="s">
+        <v>2377</v>
+      </c>
       <c r="F494" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="42">
@@ -15154,8 +15458,11 @@
       <c r="B495" t="s">
         <v>495</v>
       </c>
+      <c r="C495" t="s">
+        <v>2377</v>
+      </c>
       <c r="F495" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="42">
@@ -15165,8 +15472,11 @@
       <c r="B496" t="s">
         <v>496</v>
       </c>
+      <c r="C496" t="s">
+        <v>2377</v>
+      </c>
       <c r="F496" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="42">
@@ -15176,8 +15486,11 @@
       <c r="B497" t="s">
         <v>497</v>
       </c>
+      <c r="C497" t="s">
+        <v>2377</v>
+      </c>
       <c r="F497" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="42">
@@ -15187,8 +15500,11 @@
       <c r="B498" t="s">
         <v>498</v>
       </c>
+      <c r="C498" t="s">
+        <v>2377</v>
+      </c>
       <c r="F498" s="2" t="s">
-        <v>2376</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="42">
@@ -15198,8 +15514,11 @@
       <c r="B499" t="s">
         <v>499</v>
       </c>
+      <c r="C499" t="s">
+        <v>2386</v>
+      </c>
       <c r="F499" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="42">
@@ -15209,8 +15528,11 @@
       <c r="B500" t="s">
         <v>500</v>
       </c>
+      <c r="C500" t="s">
+        <v>2386</v>
+      </c>
       <c r="F500" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="42">

--- a/satd_issue_dataset_Go.xlsx
+++ b/satd_issue_dataset_Go.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuma/Documents/work/td_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9F024EED-54FA-5545-AEB8-94AAE56E9FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{99FACF16-9E26-E34B-B646-7E7520E16187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="-21100" windowWidth="29780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5250" uniqueCount="2415">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5350" uniqueCount="2427">
   <si>
     <t>Issue</t>
   </si>
@@ -7535,6 +7535,141 @@
       <t xml:space="preserve">フヨウナ </t>
     </rPh>
     <rPh sb="42" eb="44">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]executeCommand actionのテストの追加
+[Class]テストの追加</t>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]投稿のタイムスタンプにrole="presentation"がある
+[Class]UIの修正</t>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">トウコウノ </t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]Web:aria-labelsをナビゲーションバーボタンに追加
+[Class]UIの改善</t>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]閉じるボタンにテキストがあるがレンダリングされない
+[Class]UIの修正</t>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トジルボタンニ </t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t xml:space="preserve">シュウセイ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]testityを使用するようにテストを追加
+[Class]テストの追加</t>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]CIをGOPATHモードからmoduleモードに移行
+[Class]CIの設定変更</t>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]mmctl commandの単体テストを追加
+[Class]テストの追加</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">タンタイテスト </t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]ColorInput componentのChromePickerからalpha channel selectorを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]クリックすると入力をクリアする
+[Class]UIの改善</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">カイゼン </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]binding関数をarrow関数に変換
+[Class]関数の置き換え</t>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">カンスウヲ </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t xml:space="preserve">ヘンカン </t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t xml:space="preserve">カンスウノ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">オキカエ </t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]size_aware component logicに追加されたIE11 compatibility codeを削除
+[Class]不要なコードの削除</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[Content]openLhsへの呼び出しを削除
+[Class]不要な関数呼び出しの削除</t>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">サクジョ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">フヨウナ </t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t xml:space="preserve">カンスウヨビダシノ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t xml:space="preserve">サクジョ </t>
     </rPh>
     <phoneticPr fontId="18"/>
@@ -8507,8 +8642,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="E501" sqref="E501"/>
+    <sheetView tabSelected="1" topLeftCell="A588" workbookViewId="0">
+      <selection activeCell="E600" sqref="E600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -15542,8 +15677,11 @@
       <c r="B501" t="s">
         <v>501</v>
       </c>
+      <c r="C501" t="s">
+        <v>2386</v>
+      </c>
       <c r="F501" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="42">
@@ -15553,8 +15691,11 @@
       <c r="B502" t="s">
         <v>502</v>
       </c>
+      <c r="C502" t="s">
+        <v>2386</v>
+      </c>
       <c r="F502" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="42">
@@ -15564,8 +15705,11 @@
       <c r="B503" t="s">
         <v>503</v>
       </c>
+      <c r="C503" t="s">
+        <v>2386</v>
+      </c>
       <c r="F503" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="42">
@@ -15575,8 +15719,11 @@
       <c r="B504" t="s">
         <v>504</v>
       </c>
+      <c r="C504" t="s">
+        <v>2386</v>
+      </c>
       <c r="F504" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="42">
@@ -15586,8 +15733,11 @@
       <c r="B505" t="s">
         <v>505</v>
       </c>
+      <c r="C505" t="s">
+        <v>2386</v>
+      </c>
       <c r="F505" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="42">
@@ -15597,8 +15747,11 @@
       <c r="B506" t="s">
         <v>506</v>
       </c>
+      <c r="C506" t="s">
+        <v>2386</v>
+      </c>
       <c r="F506" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="42">
@@ -15608,8 +15761,11 @@
       <c r="B507" t="s">
         <v>507</v>
       </c>
+      <c r="C507" t="s">
+        <v>2386</v>
+      </c>
       <c r="F507" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="42">
@@ -15619,8 +15775,11 @@
       <c r="B508" t="s">
         <v>508</v>
       </c>
+      <c r="C508" t="s">
+        <v>2386</v>
+      </c>
       <c r="F508" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="42">
@@ -15630,8 +15789,11 @@
       <c r="B509" t="s">
         <v>509</v>
       </c>
+      <c r="C509" t="s">
+        <v>2386</v>
+      </c>
       <c r="F509" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="42">
@@ -15641,8 +15803,11 @@
       <c r="B510" t="s">
         <v>510</v>
       </c>
+      <c r="C510" t="s">
+        <v>2386</v>
+      </c>
       <c r="F510" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="42">
@@ -15652,8 +15817,11 @@
       <c r="B511" t="s">
         <v>511</v>
       </c>
+      <c r="C511" t="s">
+        <v>2386</v>
+      </c>
       <c r="F511" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="42">
@@ -15663,8 +15831,11 @@
       <c r="B512" t="s">
         <v>512</v>
       </c>
+      <c r="C512" t="s">
+        <v>2386</v>
+      </c>
       <c r="F512" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="42">
@@ -15674,8 +15845,11 @@
       <c r="B513" t="s">
         <v>513</v>
       </c>
+      <c r="C513" t="s">
+        <v>2386</v>
+      </c>
       <c r="F513" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="42">
@@ -15685,8 +15859,11 @@
       <c r="B514" t="s">
         <v>514</v>
       </c>
+      <c r="C514" t="s">
+        <v>2386</v>
+      </c>
       <c r="F514" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="42">
@@ -15696,8 +15873,11 @@
       <c r="B515" t="s">
         <v>515</v>
       </c>
+      <c r="C515" t="s">
+        <v>2386</v>
+      </c>
       <c r="F515" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="42">
@@ -15707,8 +15887,11 @@
       <c r="B516" t="s">
         <v>516</v>
       </c>
+      <c r="C516" t="s">
+        <v>2386</v>
+      </c>
       <c r="F516" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="42">
@@ -15718,8 +15901,11 @@
       <c r="B517" t="s">
         <v>517</v>
       </c>
+      <c r="C517" t="s">
+        <v>2386</v>
+      </c>
       <c r="F517" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="42">
@@ -15729,8 +15915,11 @@
       <c r="B518" t="s">
         <v>518</v>
       </c>
+      <c r="C518" t="s">
+        <v>2386</v>
+      </c>
       <c r="F518" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="42">
@@ -15740,8 +15929,11 @@
       <c r="B519" t="s">
         <v>519</v>
       </c>
+      <c r="C519" t="s">
+        <v>2386</v>
+      </c>
       <c r="F519" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="42">
@@ -15751,8 +15943,11 @@
       <c r="B520" t="s">
         <v>520</v>
       </c>
+      <c r="C520" t="s">
+        <v>2386</v>
+      </c>
       <c r="F520" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="42">
@@ -15762,8 +15957,11 @@
       <c r="B521" t="s">
         <v>521</v>
       </c>
+      <c r="C521" t="s">
+        <v>2386</v>
+      </c>
       <c r="F521" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="42">
@@ -15773,8 +15971,11 @@
       <c r="B522" t="s">
         <v>522</v>
       </c>
+      <c r="C522" t="s">
+        <v>2386</v>
+      </c>
       <c r="F522" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="42">
@@ -15784,8 +15985,11 @@
       <c r="B523" t="s">
         <v>523</v>
       </c>
+      <c r="C523" t="s">
+        <v>2386</v>
+      </c>
       <c r="F523" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="42">
@@ -15795,8 +15999,11 @@
       <c r="B524" t="s">
         <v>524</v>
       </c>
+      <c r="C524" t="s">
+        <v>2386</v>
+      </c>
       <c r="F524" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="42">
@@ -15806,8 +16013,11 @@
       <c r="B525" t="s">
         <v>525</v>
       </c>
+      <c r="C525" t="s">
+        <v>2386</v>
+      </c>
       <c r="F525" s="2" t="s">
-        <v>2376</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="42">
@@ -15817,8 +16027,11 @@
       <c r="B526" t="s">
         <v>526</v>
       </c>
+      <c r="C526" t="s">
+        <v>2386</v>
+      </c>
       <c r="F526" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="42">
@@ -15828,8 +16041,11 @@
       <c r="B527" t="s">
         <v>527</v>
       </c>
+      <c r="C527" t="s">
+        <v>2386</v>
+      </c>
       <c r="F527" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="42">
@@ -15839,8 +16055,11 @@
       <c r="B528" t="s">
         <v>528</v>
       </c>
+      <c r="C528" t="s">
+        <v>2386</v>
+      </c>
       <c r="F528" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="42">
@@ -15850,8 +16069,11 @@
       <c r="B529" t="s">
         <v>529</v>
       </c>
+      <c r="C529" t="s">
+        <v>2386</v>
+      </c>
       <c r="F529" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="42">
@@ -15861,8 +16083,11 @@
       <c r="B530" t="s">
         <v>530</v>
       </c>
+      <c r="C530" t="s">
+        <v>2386</v>
+      </c>
       <c r="F530" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="42">
@@ -15872,8 +16097,11 @@
       <c r="B531" t="s">
         <v>531</v>
       </c>
+      <c r="C531" t="s">
+        <v>2386</v>
+      </c>
       <c r="F531" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="42">
@@ -15883,8 +16111,11 @@
       <c r="B532" t="s">
         <v>532</v>
       </c>
+      <c r="C532" t="s">
+        <v>2386</v>
+      </c>
       <c r="F532" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="42">
@@ -15894,8 +16125,11 @@
       <c r="B533" t="s">
         <v>533</v>
       </c>
+      <c r="C533" t="s">
+        <v>2386</v>
+      </c>
       <c r="F533" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="42">
@@ -15905,8 +16139,11 @@
       <c r="B534" t="s">
         <v>534</v>
       </c>
+      <c r="C534" t="s">
+        <v>2386</v>
+      </c>
       <c r="F534" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="42">
@@ -15916,8 +16153,11 @@
       <c r="B535" t="s">
         <v>535</v>
       </c>
+      <c r="C535" t="s">
+        <v>2386</v>
+      </c>
       <c r="F535" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="42">
@@ -15927,8 +16167,11 @@
       <c r="B536" t="s">
         <v>536</v>
       </c>
+      <c r="C536" t="s">
+        <v>2386</v>
+      </c>
       <c r="F536" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="42">
@@ -15938,8 +16181,11 @@
       <c r="B537" t="s">
         <v>537</v>
       </c>
+      <c r="C537" t="s">
+        <v>2386</v>
+      </c>
       <c r="F537" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="42">
@@ -15949,8 +16195,11 @@
       <c r="B538" t="s">
         <v>538</v>
       </c>
+      <c r="C538" t="s">
+        <v>2386</v>
+      </c>
       <c r="F538" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="42">
@@ -15960,8 +16209,11 @@
       <c r="B539" t="s">
         <v>539</v>
       </c>
+      <c r="C539" t="s">
+        <v>2386</v>
+      </c>
       <c r="F539" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="42">
@@ -15971,8 +16223,11 @@
       <c r="B540" t="s">
         <v>540</v>
       </c>
+      <c r="C540" t="s">
+        <v>2386</v>
+      </c>
       <c r="F540" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="42">
@@ -15982,8 +16237,11 @@
       <c r="B541" t="s">
         <v>541</v>
       </c>
+      <c r="C541" t="s">
+        <v>2386</v>
+      </c>
       <c r="F541" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="42">
@@ -15993,8 +16251,11 @@
       <c r="B542" t="s">
         <v>542</v>
       </c>
+      <c r="C542" t="s">
+        <v>2386</v>
+      </c>
       <c r="F542" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="42">
@@ -16004,8 +16265,11 @@
       <c r="B543" t="s">
         <v>543</v>
       </c>
+      <c r="C543" t="s">
+        <v>2386</v>
+      </c>
       <c r="F543" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="42">
@@ -16015,8 +16279,11 @@
       <c r="B544" t="s">
         <v>544</v>
       </c>
+      <c r="C544" t="s">
+        <v>2386</v>
+      </c>
       <c r="F544" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="42">
@@ -16026,8 +16293,11 @@
       <c r="B545" t="s">
         <v>545</v>
       </c>
+      <c r="C545" t="s">
+        <v>2386</v>
+      </c>
       <c r="F545" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="42">
@@ -16037,8 +16307,11 @@
       <c r="B546" t="s">
         <v>546</v>
       </c>
+      <c r="C546" t="s">
+        <v>2386</v>
+      </c>
       <c r="F546" s="2" t="s">
-        <v>2376</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="42">
@@ -16048,8 +16321,11 @@
       <c r="B547" t="s">
         <v>547</v>
       </c>
+      <c r="C547" t="s">
+        <v>2386</v>
+      </c>
       <c r="F547" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="42">
@@ -16059,8 +16335,11 @@
       <c r="B548" t="s">
         <v>548</v>
       </c>
+      <c r="C548" t="s">
+        <v>2386</v>
+      </c>
       <c r="F548" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="42">
@@ -16070,8 +16349,11 @@
       <c r="B549" t="s">
         <v>549</v>
       </c>
+      <c r="C549" t="s">
+        <v>2386</v>
+      </c>
       <c r="F549" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="42">
@@ -16081,8 +16363,11 @@
       <c r="B550" t="s">
         <v>550</v>
       </c>
+      <c r="C550" t="s">
+        <v>2386</v>
+      </c>
       <c r="F550" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="42">
@@ -16092,8 +16377,11 @@
       <c r="B551" t="s">
         <v>551</v>
       </c>
+      <c r="C551" t="s">
+        <v>2386</v>
+      </c>
       <c r="F551" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="42">
@@ -16103,8 +16391,11 @@
       <c r="B552" t="s">
         <v>552</v>
       </c>
+      <c r="C552" t="s">
+        <v>2395</v>
+      </c>
       <c r="F552" s="2" t="s">
-        <v>2376</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="42">
@@ -16114,8 +16405,11 @@
       <c r="B553" t="s">
         <v>553</v>
       </c>
+      <c r="C553" t="s">
+        <v>2395</v>
+      </c>
       <c r="F553" s="2" t="s">
-        <v>2376</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="42">
@@ -16125,8 +16419,11 @@
       <c r="B554" t="s">
         <v>554</v>
       </c>
+      <c r="C554" t="s">
+        <v>2395</v>
+      </c>
       <c r="F554" s="2" t="s">
-        <v>2376</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="42">
@@ -16136,8 +16433,11 @@
       <c r="B555" t="s">
         <v>555</v>
       </c>
+      <c r="C555" t="s">
+        <v>2377</v>
+      </c>
       <c r="F555" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="42">
@@ -16147,8 +16447,11 @@
       <c r="B556" t="s">
         <v>556</v>
       </c>
+      <c r="C556" t="s">
+        <v>2377</v>
+      </c>
       <c r="F556" s="2" t="s">
-        <v>2376</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="42">
@@ -16158,8 +16461,11 @@
       <c r="B557" t="s">
         <v>557</v>
       </c>
+      <c r="C557" t="s">
+        <v>2386</v>
+      </c>
       <c r="F557" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="42">
@@ -16169,8 +16475,11 @@
       <c r="B558" t="s">
         <v>558</v>
       </c>
+      <c r="C558" t="s">
+        <v>2386</v>
+      </c>
       <c r="F558" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="42">
@@ -16180,8 +16489,11 @@
       <c r="B559" t="s">
         <v>559</v>
       </c>
+      <c r="C559" t="s">
+        <v>2386</v>
+      </c>
       <c r="F559" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="42">
@@ -16191,8 +16503,11 @@
       <c r="B560" t="s">
         <v>560</v>
       </c>
+      <c r="C560" t="s">
+        <v>2386</v>
+      </c>
       <c r="F560" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="42">
@@ -16202,8 +16517,11 @@
       <c r="B561" t="s">
         <v>561</v>
       </c>
+      <c r="C561" t="s">
+        <v>2386</v>
+      </c>
       <c r="F561" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="42">
@@ -16213,8 +16531,11 @@
       <c r="B562" t="s">
         <v>562</v>
       </c>
+      <c r="C562" t="s">
+        <v>2386</v>
+      </c>
       <c r="F562" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="42">
@@ -16224,8 +16545,11 @@
       <c r="B563" t="s">
         <v>563</v>
       </c>
+      <c r="C563" t="s">
+        <v>2386</v>
+      </c>
       <c r="F563" s="2" t="s">
-        <v>2376</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="42">
@@ -16235,8 +16559,11 @@
       <c r="B564" t="s">
         <v>564</v>
       </c>
+      <c r="C564" t="s">
+        <v>2386</v>
+      </c>
       <c r="F564" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="42">
@@ -16246,8 +16573,11 @@
       <c r="B565" t="s">
         <v>565</v>
       </c>
+      <c r="C565" t="s">
+        <v>2386</v>
+      </c>
       <c r="F565" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="42">
@@ -16257,8 +16587,11 @@
       <c r="B566" t="s">
         <v>566</v>
       </c>
+      <c r="C566" t="s">
+        <v>2386</v>
+      </c>
       <c r="F566" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="42">
@@ -16268,8 +16601,11 @@
       <c r="B567" t="s">
         <v>567</v>
       </c>
+      <c r="C567" t="s">
+        <v>2386</v>
+      </c>
       <c r="F567" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="568" spans="1:6" ht="42">
@@ -16279,8 +16615,11 @@
       <c r="B568" t="s">
         <v>568</v>
       </c>
+      <c r="C568" t="s">
+        <v>2386</v>
+      </c>
       <c r="F568" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="42">
@@ -16290,8 +16629,11 @@
       <c r="B569" t="s">
         <v>569</v>
       </c>
+      <c r="C569" t="s">
+        <v>2386</v>
+      </c>
       <c r="F569" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="42">
@@ -16301,8 +16643,11 @@
       <c r="B570" t="s">
         <v>570</v>
       </c>
+      <c r="C570" t="s">
+        <v>2386</v>
+      </c>
       <c r="F570" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="42">
@@ -16312,8 +16657,11 @@
       <c r="B571" t="s">
         <v>571</v>
       </c>
+      <c r="C571" t="s">
+        <v>2386</v>
+      </c>
       <c r="F571" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="42">
@@ -16323,8 +16671,11 @@
       <c r="B572" t="s">
         <v>572</v>
       </c>
+      <c r="C572" t="s">
+        <v>2386</v>
+      </c>
       <c r="F572" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="42">
@@ -16334,8 +16685,11 @@
       <c r="B573" t="s">
         <v>573</v>
       </c>
+      <c r="C573" t="s">
+        <v>2386</v>
+      </c>
       <c r="F573" s="2" t="s">
-        <v>2376</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="42">
@@ -16345,8 +16699,11 @@
       <c r="B574" t="s">
         <v>574</v>
       </c>
+      <c r="C574" t="s">
+        <v>2386</v>
+      </c>
       <c r="F574" s="2" t="s">
-        <v>2376</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="42">
@@ -16356,8 +16713,11 @@
       <c r="B575" t="s">
         <v>575</v>
       </c>
+      <c r="C575" t="s">
+        <v>2386</v>
+      </c>
       <c r="F575" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="576" spans="1:6" ht="42">
@@ -16367,8 +16727,11 @@
       <c r="B576" t="s">
         <v>576</v>
       </c>
+      <c r="C576" t="s">
+        <v>2386</v>
+      </c>
       <c r="F576" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="42">
@@ -16378,8 +16741,11 @@
       <c r="B577" t="s">
         <v>577</v>
       </c>
+      <c r="C577" t="s">
+        <v>2386</v>
+      </c>
       <c r="F577" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="42">
@@ -16389,8 +16755,11 @@
       <c r="B578" t="s">
         <v>578</v>
       </c>
+      <c r="C578" t="s">
+        <v>2386</v>
+      </c>
       <c r="F578" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="42">
@@ -16400,8 +16769,11 @@
       <c r="B579" t="s">
         <v>579</v>
       </c>
+      <c r="C579" t="s">
+        <v>2377</v>
+      </c>
       <c r="F579" s="2" t="s">
-        <v>2376</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="42">
@@ -16411,8 +16783,11 @@
       <c r="B580" t="s">
         <v>580</v>
       </c>
+      <c r="C580" t="s">
+        <v>2395</v>
+      </c>
       <c r="F580" s="2" t="s">
-        <v>2376</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="42">
@@ -16422,8 +16797,11 @@
       <c r="B581" t="s">
         <v>581</v>
       </c>
+      <c r="C581" t="s">
+        <v>2386</v>
+      </c>
       <c r="F581" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="42">
@@ -16433,8 +16811,11 @@
       <c r="B582" t="s">
         <v>582</v>
       </c>
+      <c r="C582" t="s">
+        <v>2386</v>
+      </c>
       <c r="F582" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="42">
@@ -16444,8 +16825,11 @@
       <c r="B583" t="s">
         <v>583</v>
       </c>
+      <c r="C583" t="s">
+        <v>2386</v>
+      </c>
       <c r="F583" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="584" spans="1:6" ht="42">
@@ -16455,8 +16839,11 @@
       <c r="B584" t="s">
         <v>584</v>
       </c>
+      <c r="C584" t="s">
+        <v>2386</v>
+      </c>
       <c r="F584" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="42">
@@ -16466,8 +16853,11 @@
       <c r="B585" t="s">
         <v>585</v>
       </c>
+      <c r="C585" t="s">
+        <v>2386</v>
+      </c>
       <c r="F585" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="42">
@@ -16477,8 +16867,11 @@
       <c r="B586" t="s">
         <v>586</v>
       </c>
+      <c r="C586" t="s">
+        <v>2386</v>
+      </c>
       <c r="F586" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="42">
@@ -16488,8 +16881,11 @@
       <c r="B587" t="s">
         <v>587</v>
       </c>
+      <c r="C587" t="s">
+        <v>2386</v>
+      </c>
       <c r="F587" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="42">
@@ -16499,8 +16895,11 @@
       <c r="B588" t="s">
         <v>588</v>
       </c>
+      <c r="C588" t="s">
+        <v>2386</v>
+      </c>
       <c r="F588" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="42">
@@ -16510,8 +16909,11 @@
       <c r="B589" t="s">
         <v>589</v>
       </c>
+      <c r="C589" t="s">
+        <v>2377</v>
+      </c>
       <c r="F589" s="2" t="s">
-        <v>2376</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="42">
@@ -16521,8 +16923,11 @@
       <c r="B590" t="s">
         <v>590</v>
       </c>
+      <c r="C590" t="s">
+        <v>2377</v>
+      </c>
       <c r="F590" s="2" t="s">
-        <v>2376</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="42">
@@ -16532,8 +16937,11 @@
       <c r="B591" t="s">
         <v>591</v>
       </c>
+      <c r="C591" t="s">
+        <v>2377</v>
+      </c>
       <c r="F591" s="2" t="s">
-        <v>2376</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="42">
@@ -16543,8 +16951,11 @@
       <c r="B592" t="s">
         <v>592</v>
       </c>
+      <c r="C592" t="s">
+        <v>2386</v>
+      </c>
       <c r="F592" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="42">
@@ -16554,8 +16965,11 @@
       <c r="B593" t="s">
         <v>593</v>
       </c>
+      <c r="C593" t="s">
+        <v>2386</v>
+      </c>
       <c r="F593" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="42">
@@ -16565,8 +16979,11 @@
       <c r="B594" t="s">
         <v>594</v>
       </c>
+      <c r="C594" t="s">
+        <v>2386</v>
+      </c>
       <c r="F594" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="42">
@@ -16576,8 +16993,11 @@
       <c r="B595" t="s">
         <v>595</v>
       </c>
+      <c r="C595" t="s">
+        <v>2386</v>
+      </c>
       <c r="F595" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="42">
@@ -16587,8 +17007,11 @@
       <c r="B596" t="s">
         <v>596</v>
       </c>
+      <c r="C596" t="s">
+        <v>2386</v>
+      </c>
       <c r="F596" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="42">
@@ -16598,8 +17021,11 @@
       <c r="B597" t="s">
         <v>597</v>
       </c>
+      <c r="C597" t="s">
+        <v>2386</v>
+      </c>
       <c r="F597" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="42">
@@ -16609,8 +17035,11 @@
       <c r="B598" t="s">
         <v>598</v>
       </c>
+      <c r="C598" t="s">
+        <v>2386</v>
+      </c>
       <c r="F598" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="42">
@@ -16620,8 +17049,11 @@
       <c r="B599" t="s">
         <v>599</v>
       </c>
+      <c r="C599" t="s">
+        <v>2386</v>
+      </c>
       <c r="F599" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="600" spans="1:6" ht="42">
@@ -16631,8 +17063,11 @@
       <c r="B600" t="s">
         <v>600</v>
       </c>
+      <c r="C600" t="s">
+        <v>2386</v>
+      </c>
       <c r="F600" s="2" t="s">
-        <v>2376</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="42">
